--- a/experiment_results/77354P1.xlsx
+++ b/experiment_results/77354P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I927"/>
+  <dimension ref="A1:I872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -11017,7 +11017,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194AMPM</t>
+          <t>PRODUCTCODE: 8747ONEWORLD</t>
         </is>
       </c>
       <c r="B702" t="inlineStr"/>
@@ -11032,7 +11032,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. Day and night ticket allows you to experience the city from the world's most famous building. 360-degree observatory under the morning sun and the sparkling city lights the same night.</t>
+          <t>Summarized description: One World Observatory offers 360-degree views of the New York skyline from the highest point in the city. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage.</t>
         </is>
       </c>
       <c r="B703" t="inlineStr"/>
@@ -11047,7 +11047,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Title: Empire State Building Day and Night Admission Ticket</t>
+          <t>Title: NYC One World Observatory Ticket Optional Upgrade Skip-the-Line</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11062,7 +11062,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>TotalReviews: 682</t>
+          <t>TotalReviews: 2355</t>
         </is>
       </c>
       <c r="B705" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -11092,7 +11092,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P7</t>
+          <t>PRODUCTCODE: 76823P1</t>
         </is>
       </c>
       <c r="B707" t="inlineStr"/>
@@ -11107,7 +11107,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Summarized description: Take an astonishing ride in the SkyPod Elevators as you climb 102 stories in 47 seconds. Enjoy 2 drinks (choice of beer, wine or prosecco) with your ticket for a truly unforgettable experience.</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B708" t="inlineStr"/>
@@ -11122,7 +11122,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Title: New York City One World Observatory Drink in the View Ticket</t>
+          <t>Title: Edge Observation Deck Admission Ticket</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11137,7 +11137,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>TotalReviews: 97</t>
+          <t>TotalReviews: 1708</t>
         </is>
       </c>
       <c r="B710" t="inlineStr"/>
@@ -11152,7 +11152,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B711" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P10</t>
+          <t>PRODUCTCODE: 2194AMPM</t>
         </is>
       </c>
       <c r="B712" t="inlineStr"/>
@@ -11182,7 +11182,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Summarized description: The COMBINATION EXPERIENCE includes PRIORITY access to all Observatory levels for skyline views and all multimedia experiences. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage or retail items.</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. Day and night ticket allows you to experience the city from the world's most famous building. 360-degree observatory under the morning sun and the sparkling city lights the same night.</t>
         </is>
       </c>
       <c r="B713" t="inlineStr"/>
@@ -11197,7 +11197,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line NYC One World Observatory Combo Ticket</t>
+          <t>Title: Empire State Building Day and Night Admission Ticket</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11212,7 +11212,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>TotalReviews: 86</t>
+          <t>TotalReviews: 682</t>
         </is>
       </c>
       <c r="B715" t="inlineStr"/>
@@ -11227,7 +11227,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B716" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P65</t>
+          <t>PRODUCTCODE: 8747P7</t>
         </is>
       </c>
       <c r="B717" t="inlineStr"/>
@@ -11257,7 +11257,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
+          <t>Summarized description: Take an astonishing ride in the SkyPod Elevators as you climb 102 stories in 47 seconds. Enjoy 2 drinks (choice of beer, wine or prosecco) with your ticket for a truly unforgettable experience.</t>
         </is>
       </c>
       <c r="B718" t="inlineStr"/>
@@ -11272,7 +11272,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
+          <t>Title: New York City One World Observatory Drink in the View Ticket</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11287,7 +11287,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 97</t>
         </is>
       </c>
       <c r="B720" t="inlineStr"/>
@@ -11302,7 +11302,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11317,7 +11317,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P2</t>
+          <t>PRODUCTCODE: 8747P10</t>
         </is>
       </c>
       <c r="B722" t="inlineStr"/>
@@ -11332,7 +11332,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Summarized description: The COMBINATION EXPERIENCE includes PRIORITY access to all Observatory levels for skyline views and all multimedia experiences. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage or retail items.</t>
         </is>
       </c>
       <c r="B723" t="inlineStr"/>
@@ -11347,7 +11347,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
+          <t>Title: Skip-the-Line NYC One World Observatory Combo Ticket</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11362,7 +11362,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 86</t>
         </is>
       </c>
       <c r="B725" t="inlineStr"/>
@@ -11377,7 +11377,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11392,7 +11392,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P248</t>
+          <t>PRODUCTCODE: 7167P65</t>
         </is>
       </c>
       <c r="B727" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
+          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
         </is>
       </c>
       <c r="B728" t="inlineStr"/>
@@ -11422,7 +11422,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
+          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11437,7 +11437,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B730" t="inlineStr"/>
@@ -11452,7 +11452,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11467,7 +11467,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P425</t>
+          <t>PRODUCTCODE: 76823P2</t>
         </is>
       </c>
       <c r="B732" t="inlineStr"/>
@@ -11482,7 +11482,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B733" t="inlineStr"/>
@@ -11497,7 +11497,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
+          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11512,7 +11512,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B735" t="inlineStr"/>
@@ -11527,7 +11527,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11542,7 +11542,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P12</t>
+          <t>PRODUCTCODE: 31070P248</t>
         </is>
       </c>
       <c r="B737" t="inlineStr"/>
@@ -11557,7 +11557,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
+          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
         </is>
       </c>
       <c r="B738" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
+          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11587,7 +11587,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B740" t="inlineStr"/>
@@ -11617,7 +11617,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P9</t>
+          <t>PRODUCTCODE: 15081P425</t>
         </is>
       </c>
       <c r="B742" t="inlineStr"/>
@@ -11632,7 +11632,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
+          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
         </is>
       </c>
       <c r="B743" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
+          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11662,7 +11662,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B745" t="inlineStr"/>
@@ -11677,7 +11677,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11692,7 +11692,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P358</t>
+          <t>PRODUCTCODE: 8747P12</t>
         </is>
       </c>
       <c r="B747" t="inlineStr"/>
@@ -11707,7 +11707,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
+          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
         </is>
       </c>
       <c r="B748" t="inlineStr"/>
@@ -11722,7 +11722,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
+          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B750" t="inlineStr"/>
@@ -11752,7 +11752,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11767,7 +11767,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122012P14</t>
+          <t>PRODUCTCODE: 8747P9</t>
         </is>
       </c>
       <c r="B752" t="inlineStr"/>
@@ -11782,7 +11782,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
+          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
         </is>
       </c>
       <c r="B753" t="inlineStr"/>
@@ -11797,7 +11797,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
+          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11812,7 +11812,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B755" t="inlineStr"/>
@@ -11827,7 +11827,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11842,7 +11842,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P9</t>
+          <t>PRODUCTCODE: 210206P358</t>
         </is>
       </c>
       <c r="B757" t="inlineStr"/>
@@ -11857,7 +11857,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
+          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
         </is>
       </c>
       <c r="B758" t="inlineStr"/>
@@ -11872,7 +11872,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
+          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11887,7 +11887,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B760" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P41</t>
+          <t>PRODUCTCODE: 122012P14</t>
         </is>
       </c>
       <c r="B762" t="inlineStr"/>
@@ -11932,7 +11932,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
+          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
         </is>
       </c>
       <c r="B763" t="inlineStr"/>
@@ -11947,7 +11947,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
+          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -11977,7 +11977,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Shopping and Fashion', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -11992,7 +11992,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183204P3</t>
+          <t>PRODUCTCODE: 111861P9</t>
         </is>
       </c>
       <c r="B767" t="inlineStr"/>
@@ -12007,7 +12007,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building was completed in 1931. The most iconic spot on this skyscraper is the 86th floor. The view from here is breathtaking, figuratively (and sometimes literally too)!</t>
+          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
         </is>
       </c>
       <c r="B768" t="inlineStr"/>
@@ -12022,7 +12022,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Title: Tickets for Empire State Building: Skip The Line</t>
+          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12052,7 +12052,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P207</t>
+          <t>PRODUCTCODE: 186143P41</t>
         </is>
       </c>
       <c r="B772" t="inlineStr"/>
@@ -12082,7 +12082,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Summarized description: SkyPod is the fastest elevator in the world, reaching speeds of up to 28 mph. SkyPod presents a virtual time-lapse visual experience as it ascends, revealing how the perspective of New York City has changed since the 1500s.</t>
+          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
         </is>
       </c>
       <c r="B773" t="inlineStr"/>
@@ -12097,7 +12097,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line Ticket to One World Observatory with New York Self-Guided Tours</t>
+          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12112,7 +12112,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B775" t="inlineStr"/>
@@ -12127,7 +12127,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121855P10</t>
+          <t>PRODUCTCODE: 210206P207</t>
         </is>
       </c>
       <c r="B777" t="inlineStr"/>
@@ -12157,7 +12157,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Summarized description: New York City boasts one of the world’s most iconic skylines. We put traveller's favorite spots from which to gaze upon the best views in New York.</t>
+          <t>Summarized description: SkyPod is the fastest elevator in the world, reaching speeds of up to 28 mph. SkyPod presents a virtual time-lapse visual experience as it ascends, revealing how the perspective of New York City has changed since the 1500s.</t>
         </is>
       </c>
       <c r="B778" t="inlineStr"/>
@@ -12172,7 +12172,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Pass: Empire State Building, Top of the Rock, One World Observatory</t>
+          <t>Title: Skip-the-Line Ticket to One World Observatory with New York Self-Guided Tours</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12202,7 +12202,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12217,7 +12217,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75303P2</t>
+          <t>PRODUCTCODE: 121855P10</t>
         </is>
       </c>
       <c r="B782" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Summarized description: Our Spanish-speaking guides will show you the different neighborhoods that make up this exciting city. Excursion with which you will get a perfect idea of the composition of Manhattan.</t>
+          <t>Summarized description: New York City boasts one of the world’s most iconic skylines. We put traveller's favorite spots from which to gaze upon the best views in New York.</t>
         </is>
       </c>
       <c r="B783" t="inlineStr"/>
@@ -12247,7 +12247,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Title: Upper and Lower Manhattan with tickets to One World Observatory</t>
+          <t>Title: NYC Skyline Pass: Empire State Building, Top of the Rock, One World Observatory</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12277,7 +12277,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -12292,7 +12292,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251291P44</t>
+          <t>PRODUCTCODE: 75303P2</t>
         </is>
       </c>
       <c r="B787" t="inlineStr"/>
@@ -12307,7 +12307,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Summarized description: The Top of the Rock Observation Deck offers 360-degree views of New York City. 9,500 square feet of outdoor viewing space, the most of any other NYC observatory.</t>
+          <t>Summarized description: Our Spanish-speaking guides will show you the different neighborhoods that make up this exciting city. Excursion with which you will get a perfect idea of the composition of Manhattan.</t>
         </is>
       </c>
       <c r="B788" t="inlineStr"/>
@@ -12322,7 +12322,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Title: New York Top of the Rock Admission Ticket</t>
+          <t>Title: Upper and Lower Manhattan with tickets to One World Observatory</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12352,7 +12352,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12367,7 +12367,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5250P59</t>
+          <t>PRODUCTCODE: 8747P6</t>
         </is>
       </c>
       <c r="B792" t="inlineStr"/>
@@ -12382,7 +12382,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
+          <t>Summarized description: 4th of July celebration at One World Observatory at the top of One World Trade Center. Tickets to this event include admission to the Observatory from 8 pm - 10 pm, a two hour open bar.</t>
         </is>
       </c>
       <c r="B793" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
+          <t>Title: One World Observatory 4th of July Celebration Admission</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12427,7 +12427,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P116</t>
+          <t>PRODUCTCODE: 5250P59</t>
         </is>
       </c>
       <c r="B797" t="inlineStr"/>
@@ -12457,7 +12457,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Summarized description: Be transported by Skypod to the 102nd floor in 47 seconds, seeing the evolution of the Manhattan skyline on the way. Step out onto the see-through Sky Portal for heart-racing views.</t>
+          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
         </is>
       </c>
       <c r="B798" t="inlineStr"/>
@@ -12472,7 +12472,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory: Skip-the-Queue Ticket</t>
+          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12502,7 +12502,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12517,7 +12517,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121855P6</t>
+          <t>PRODUCTCODE: 128905P307</t>
         </is>
       </c>
       <c r="B802" t="inlineStr"/>
@@ -12532,7 +12532,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building is one of the most recognizable buildings in the world. Make your way to the Observatory to catch amazing 360-degree views of New York City.</t>
+          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B803" t="inlineStr"/>
@@ -12547,7 +12547,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Title: Empire State Building - the 86th Observatory Deck Ticket</t>
+          <t>Title: New York Edge Sky Deck Admission Tickets</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B805" t="inlineStr"/>
@@ -12577,7 +12577,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12592,7 +12592,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198060P8</t>
+          <t>PRODUCTCODE: 255730P29</t>
         </is>
       </c>
       <c r="B807" t="inlineStr"/>
@@ -12607,7 +12607,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Summarized description: With the exhibition and two viewing platforms, the Empire State Building is the best way to see New York's most famous skyscraper. Looking up at the skyscrapers of New York is quite an experience, but that's nothing compared to the view from the top.</t>
+          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
         </is>
       </c>
       <c r="B808" t="inlineStr"/>
@@ -12622,7 +12622,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: United States New York Empire State Building ticket </t>
+          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B810" t="inlineStr"/>
@@ -12652,7 +12652,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12667,7 +12667,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P307</t>
+          <t>PRODUCTCODE: 378258P189</t>
         </is>
       </c>
       <c r="B812" t="inlineStr"/>
@@ -12682,7 +12682,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B813" t="inlineStr"/>
@@ -12697,7 +12697,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Title: New York Edge Sky Deck Admission Tickets</t>
+          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 217534P10</t>
+          <t>PRODUCTCODE: 275645P2</t>
         </is>
       </c>
       <c r="B817" t="inlineStr"/>
@@ -12757,7 +12757,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Summarized description: Take in a 360-degree panorama of New York from 850 feet (260m) in the air at the Top of the Rock. Stroll between 2 floors with expansive indoor and outdoor viewing areas. Top off your visit by taking in breathtaking views of Central Park, Empire State Building, lower Manhattan.</t>
+          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
         </is>
       </c>
       <c r="B818" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Rockefeller Center Observation Deck Admission Ticket</t>
+          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12802,7 +12802,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747CHAMP</t>
+          <t>PRODUCTCODE: 177373P17</t>
         </is>
       </c>
       <c r="B822" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Summarized description: Celebrate at One World Observatory with a glass of sparkling champagne. Your ticket includes entry to the One World observatory and a drink at ONE Mix. One Mix is located on level 101 of One World Observatory.</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
         </is>
       </c>
       <c r="B823" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Title: Champagne Celebration with One World Observatory Admission</t>
+          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P45</t>
+          <t>PRODUCTCODE: 116848P46</t>
         </is>
       </c>
       <c r="B827" t="inlineStr"/>
@@ -12907,7 +12907,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building is more than a spectacular view. It’s an immersive experience inside a world famous landmark. In addition to the Observation Decks, your visit includes the newly restored lobby.</t>
+          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
         </is>
       </c>
       <c r="B828" t="inlineStr"/>
@@ -12922,7 +12922,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Empire State Building Ticket</t>
+          <t>Title: Skip the Line: One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12967,7 +12967,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P63</t>
+          <t>PRODUCTCODE: 130543P1</t>
         </is>
       </c>
       <c r="B832" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Summarized description:  Skip all the lines to the One World Observatory, located on floors 100-102 of the tallest building in the US. Enjoy live commentary and unparalleled views of the Empire State Building, the Statue of Liberty, the Brooklyn Bridge and more.</t>
+          <t>Summarized description: Learn about the construction of One World Observatory, the 1,776-foot-tall skyscraper built on the location of the original New York City World Trade Center. Visit the New York Stock Exchange, St Paul's Chapel, and The New York World's Fair.</t>
         </is>
       </c>
       <c r="B833" t="inlineStr"/>
@@ -12997,7 +12997,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line One World Observatory Tour with Transfers</t>
+          <t>Title: The One World Observatory, 911 Memorial Tour, Oculus &amp; A Downtown Walking Tour.</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13027,7 +13027,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13042,7 +13042,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198060P35</t>
+          <t>PRODUCTCODE: 34556P6</t>
         </is>
       </c>
       <c r="B837" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Summarized description: One world trade center proudly stands as one of the tallest buildings in the world. Now you can go up into the sky and enjoy spectacular views of New York City and beyond.</t>
+          <t>Summarized description: One World Trade is the tallest building in the Western Hemisphere. Enjoy a luxury cruise around Manhattan and then walk across the street and climb to the top of the building.</t>
         </is>
       </c>
       <c r="B838" t="inlineStr"/>
@@ -13072,7 +13072,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Title: United States New York One World Observatory Ticket</t>
+          <t>Title: Luxury Boat Tour and One World Observatory Admission</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13102,7 +13102,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13117,7 +13117,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P215</t>
+          <t>PRODUCTCODE: 90219P179</t>
         </is>
       </c>
       <c r="B842" t="inlineStr"/>
@@ -13132,7 +13132,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world, reaching 1,776 feet. The observatory offers unprecedented panoramic views of New York City and beyond.</t>
+          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
         </is>
       </c>
       <c r="B843" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Title: One World Observatory</t>
+          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13177,7 +13177,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B846" t="inlineStr"/>
@@ -13192,7 +13192,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P2</t>
+          <t>PRODUCTCODE: 116848P17</t>
         </is>
       </c>
       <c r="B847" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Skip-the-Line Admission to One World Observatory is available on a first come, first served basis.</t>
+          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: One World Observatory Ticket (New York City)</t>
+          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13252,7 +13252,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P44</t>
+          <t>PRODUCTCODE: 128905P252</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -13282,7 +13282,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world. Enjoy breathtaking views of NYC from One World Observatory. Explore the fascinating history and iconic landmarks of the Lower Manhattan with the private audio tour available on Wegotrip App.</t>
+          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
         </is>
       </c>
       <c r="B853" t="inlineStr"/>
@@ -13297,7 +13297,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Title: One World Observatory: Skip-The-Line + Sightseeing Audio Tour on Mobile App</t>
+          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13327,7 +13327,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P12</t>
+          <t>PRODUCTCODE: 368349P530</t>
         </is>
       </c>
       <c r="B857" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the Top on the Sky Shuttle. Explore 2 floors with expansive indoor and outdoor viewing areas. Top off your visit with breathtaking views of Central Park, Empire State Building, downtown Manhattan.</t>
+          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr"/>
@@ -13372,7 +13372,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Title: New York Exclusive - Skip the Line: One World Observatory Visit Ticket</t>
+          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13402,7 +13402,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275645P2</t>
+          <t>PRODUCTCODE: 368349P498</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -13432,7 +13432,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
+          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
         </is>
       </c>
       <c r="B863" t="inlineStr"/>
@@ -13447,7 +13447,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
+          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13477,7 +13477,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 177373P17</t>
+          <t>PRODUCTCODE: 455518P8</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13507,7 +13507,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
+          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
         </is>
       </c>
       <c r="B868" t="inlineStr"/>
@@ -13522,7 +13522,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
+          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B871" t="inlineStr"/>
@@ -13567,7 +13567,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P46</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B872" t="inlineStr"/>
@@ -13579,831 +13579,6 @@
       <c r="H872" t="inlineStr"/>
       <c r="I872" t="inlineStr"/>
     </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
-        </is>
-      </c>
-      <c r="B873" t="inlineStr"/>
-      <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr"/>
-      <c r="I873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: One World Observatory Ticket</t>
-        </is>
-      </c>
-      <c r="B874" t="inlineStr"/>
-      <c r="C874" t="inlineStr"/>
-      <c r="D874" t="inlineStr"/>
-      <c r="E874" t="inlineStr"/>
-      <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr"/>
-      <c r="I874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B875" t="inlineStr"/>
-      <c r="C875" t="inlineStr"/>
-      <c r="D875" t="inlineStr"/>
-      <c r="E875" t="inlineStr"/>
-      <c r="F875" t="inlineStr"/>
-      <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr"/>
-      <c r="I875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B876" t="inlineStr"/>
-      <c r="C876" t="inlineStr"/>
-      <c r="D876" t="inlineStr"/>
-      <c r="E876" t="inlineStr"/>
-      <c r="F876" t="inlineStr"/>
-      <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr"/>
-      <c r="I876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 130543P1</t>
-        </is>
-      </c>
-      <c r="B877" t="inlineStr"/>
-      <c r="C877" t="inlineStr"/>
-      <c r="D877" t="inlineStr"/>
-      <c r="E877" t="inlineStr"/>
-      <c r="F877" t="inlineStr"/>
-      <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr"/>
-      <c r="I877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about the construction of One World Observatory, the 1,776-foot-tall skyscraper built on the location of the original New York City World Trade Center. Visit the New York Stock Exchange, St Paul's Chapel, and The New York World's Fair.</t>
-        </is>
-      </c>
-      <c r="B878" t="inlineStr"/>
-      <c r="C878" t="inlineStr"/>
-      <c r="D878" t="inlineStr"/>
-      <c r="E878" t="inlineStr"/>
-      <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr"/>
-      <c r="I878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>Title: The One World Observatory, 911 Memorial Tour, Oculus &amp; A Downtown Walking Tour.</t>
-        </is>
-      </c>
-      <c r="B879" t="inlineStr"/>
-      <c r="C879" t="inlineStr"/>
-      <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr"/>
-      <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr"/>
-      <c r="I879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B880" t="inlineStr"/>
-      <c r="C880" t="inlineStr"/>
-      <c r="D880" t="inlineStr"/>
-      <c r="E880" t="inlineStr"/>
-      <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr"/>
-      <c r="I880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B881" t="inlineStr"/>
-      <c r="C881" t="inlineStr"/>
-      <c r="D881" t="inlineStr"/>
-      <c r="E881" t="inlineStr"/>
-      <c r="F881" t="inlineStr"/>
-      <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr"/>
-      <c r="I881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 34556P6</t>
-        </is>
-      </c>
-      <c r="B882" t="inlineStr"/>
-      <c r="C882" t="inlineStr"/>
-      <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr"/>
-      <c r="F882" t="inlineStr"/>
-      <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr"/>
-      <c r="I882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>Summarized description: One World Trade is the tallest building in the Western Hemisphere. Enjoy a luxury cruise around Manhattan and then walk across the street and climb to the top of the building.</t>
-        </is>
-      </c>
-      <c r="B883" t="inlineStr"/>
-      <c r="C883" t="inlineStr"/>
-      <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
-      <c r="F883" t="inlineStr"/>
-      <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr"/>
-      <c r="I883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>Title: Luxury Boat Tour and One World Observatory Admission</t>
-        </is>
-      </c>
-      <c r="B884" t="inlineStr"/>
-      <c r="C884" t="inlineStr"/>
-      <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr"/>
-      <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr"/>
-      <c r="I884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr"/>
-      <c r="C885" t="inlineStr"/>
-      <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr"/>
-      <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr"/>
-      <c r="I885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B886" t="inlineStr"/>
-      <c r="C886" t="inlineStr"/>
-      <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr"/>
-      <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr"/>
-      <c r="I886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 116848P17</t>
-        </is>
-      </c>
-      <c r="B887" t="inlineStr"/>
-      <c r="C887" t="inlineStr"/>
-      <c r="D887" t="inlineStr"/>
-      <c r="E887" t="inlineStr"/>
-      <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr"/>
-      <c r="I887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
-        </is>
-      </c>
-      <c r="B888" t="inlineStr"/>
-      <c r="C888" t="inlineStr"/>
-      <c r="D888" t="inlineStr"/>
-      <c r="E888" t="inlineStr"/>
-      <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr"/>
-      <c r="I888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
-        </is>
-      </c>
-      <c r="B889" t="inlineStr"/>
-      <c r="C889" t="inlineStr"/>
-      <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr"/>
-      <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr"/>
-      <c r="I889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B890" t="inlineStr"/>
-      <c r="C890" t="inlineStr"/>
-      <c r="D890" t="inlineStr"/>
-      <c r="E890" t="inlineStr"/>
-      <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr"/>
-      <c r="I890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B891" t="inlineStr"/>
-      <c r="C891" t="inlineStr"/>
-      <c r="D891" t="inlineStr"/>
-      <c r="E891" t="inlineStr"/>
-      <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr"/>
-      <c r="I891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 128905P252</t>
-        </is>
-      </c>
-      <c r="B892" t="inlineStr"/>
-      <c r="C892" t="inlineStr"/>
-      <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr"/>
-      <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr"/>
-      <c r="I892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
-        </is>
-      </c>
-      <c r="B893" t="inlineStr"/>
-      <c r="C893" t="inlineStr"/>
-      <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr"/>
-      <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr"/>
-      <c r="I893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
-        </is>
-      </c>
-      <c r="B894" t="inlineStr"/>
-      <c r="C894" t="inlineStr"/>
-      <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr"/>
-      <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr"/>
-      <c r="I894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B895" t="inlineStr"/>
-      <c r="C895" t="inlineStr"/>
-      <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr"/>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr"/>
-      <c r="I895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>Category: ['Aerial Tours']</t>
-        </is>
-      </c>
-      <c r="B896" t="inlineStr"/>
-      <c r="C896" t="inlineStr"/>
-      <c r="D896" t="inlineStr"/>
-      <c r="E896" t="inlineStr"/>
-      <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr"/>
-      <c r="I896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 107859P732</t>
-        </is>
-      </c>
-      <c r="B897" t="inlineStr"/>
-      <c r="C897" t="inlineStr"/>
-      <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr"/>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr"/>
-      <c r="I897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>Summarized description: OWTC is a spectacular glass and steel boulder that stands 1.776 feet tall. Designed by David Childs, the chief architect of the Burj Khalifa in Dubai.</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr"/>
-      <c r="C898" t="inlineStr"/>
-      <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr"/>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr"/>
-      <c r="I898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>Title: United States New York One World Observatory: Skip The Ticket Line</t>
-        </is>
-      </c>
-      <c r="B899" t="inlineStr"/>
-      <c r="C899" t="inlineStr"/>
-      <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
-      <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr"/>
-      <c r="I899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B900" t="inlineStr"/>
-      <c r="C900" t="inlineStr"/>
-      <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr"/>
-      <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr"/>
-      <c r="I900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B901" t="inlineStr"/>
-      <c r="C901" t="inlineStr"/>
-      <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr"/>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr"/>
-      <c r="I901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 368349P498</t>
-        </is>
-      </c>
-      <c r="B902" t="inlineStr"/>
-      <c r="C902" t="inlineStr"/>
-      <c r="D902" t="inlineStr"/>
-      <c r="E902" t="inlineStr"/>
-      <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr"/>
-      <c r="I902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr"/>
-      <c r="C903" t="inlineStr"/>
-      <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr"/>
-      <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr"/>
-      <c r="I903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
-        </is>
-      </c>
-      <c r="B904" t="inlineStr"/>
-      <c r="C904" t="inlineStr"/>
-      <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
-      <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr"/>
-      <c r="I904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr"/>
-      <c r="C905" t="inlineStr"/>
-      <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
-      <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr"/>
-      <c r="I905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
-      <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
-      <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
-      <c r="I906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 121855P9</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr"/>
-      <c r="C907" t="inlineStr"/>
-      <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
-      <c r="I907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>Summarized description: The One World Observatory is the latest and greatest Big Apple attraction. Located at the top three floors of the One World Trade Center, the observatory boasts jaw-dropping views of Manhattan.</t>
-        </is>
-      </c>
-      <c r="B908" t="inlineStr"/>
-      <c r="C908" t="inlineStr"/>
-      <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr"/>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr"/>
-      <c r="I908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>Title: NYC One World Observatory Day-Time Ticket</t>
-        </is>
-      </c>
-      <c r="B909" t="inlineStr"/>
-      <c r="C909" t="inlineStr"/>
-      <c r="D909" t="inlineStr"/>
-      <c r="E909" t="inlineStr"/>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
-      <c r="H909" t="inlineStr"/>
-      <c r="I909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B910" t="inlineStr"/>
-      <c r="C910" t="inlineStr"/>
-      <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr"/>
-      <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr"/>
-      <c r="I910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B911" t="inlineStr"/>
-      <c r="C911" t="inlineStr"/>
-      <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr"/>
-      <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr"/>
-      <c r="I911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 217534P1</t>
-        </is>
-      </c>
-      <c r="B912" t="inlineStr"/>
-      <c r="C912" t="inlineStr"/>
-      <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr"/>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
-      <c r="H912" t="inlineStr"/>
-      <c r="I912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
-        </is>
-      </c>
-      <c r="B913" t="inlineStr"/>
-      <c r="C913" t="inlineStr"/>
-      <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr"/>
-      <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr"/>
-      <c r="I913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Empire State Building Admission Ticket </t>
-        </is>
-      </c>
-      <c r="B914" t="inlineStr"/>
-      <c r="C914" t="inlineStr"/>
-      <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr"/>
-      <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr"/>
-      <c r="I914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B915" t="inlineStr"/>
-      <c r="C915" t="inlineStr"/>
-      <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr"/>
-      <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr"/>
-      <c r="I915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B916" t="inlineStr"/>
-      <c r="C916" t="inlineStr"/>
-      <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr"/>
-      <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr"/>
-      <c r="I916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 256691P4</t>
-        </is>
-      </c>
-      <c r="B917" t="inlineStr"/>
-      <c r="C917" t="inlineStr"/>
-      <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr"/>
-      <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr"/>
-      <c r="I917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>Summarized description: Take in 360-degree panoramic views of the Big Apple from Top of the Rock’s iconic observation deck. This flexible date ticket allows you to plan your visit around the weather.</t>
-        </is>
-      </c>
-      <c r="B918" t="inlineStr"/>
-      <c r="C918" t="inlineStr"/>
-      <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr"/>
-      <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr"/>
-      <c r="I918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>Title: NYC: Top of the Rock Observation Deck Flexible Date Ticket</t>
-        </is>
-      </c>
-      <c r="B919" t="inlineStr"/>
-      <c r="C919" t="inlineStr"/>
-      <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr"/>
-      <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr"/>
-      <c r="I919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr"/>
-      <c r="C920" t="inlineStr"/>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr"/>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr"/>
-      <c r="I920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B921" t="inlineStr"/>
-      <c r="C921" t="inlineStr"/>
-      <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr"/>
-      <c r="I921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 455518P8</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr"/>
-      <c r="C922" t="inlineStr"/>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr"/>
-      <c r="I922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr"/>
-      <c r="C923" t="inlineStr"/>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr"/>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr"/>
-      <c r="I923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
-        </is>
-      </c>
-      <c r="B924" t="inlineStr"/>
-      <c r="C924" t="inlineStr"/>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr"/>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr"/>
-      <c r="I924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr"/>
-      <c r="C925" t="inlineStr"/>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr"/>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr"/>
-      <c r="I925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B926" t="inlineStr"/>
-      <c r="C926" t="inlineStr"/>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr"/>
-      <c r="I926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr"/>
-      <c r="C927" t="inlineStr"/>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr"/>
-      <c r="I927" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/77354P1.xlsx
+++ b/experiment_results/77354P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I872"/>
+  <dimension ref="A1:I867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Winter Sports']</t>
+          <t>Category: ['Winter Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Winter Sports']</t>
+          <t>Category: ['Winter Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -11452,7 +11452,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11677,7 +11677,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5250P59</t>
+          <t>PRODUCTCODE: 90219P116</t>
         </is>
       </c>
       <c r="B797" t="inlineStr"/>
@@ -12457,7 +12457,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
+          <t>Summarized description: Be transported by Skypod to the 102nd floor in 47 seconds, seeing the evolution of the Manhattan skyline on the way. Step out onto the see-through Sky Portal for heart-racing views.</t>
         </is>
       </c>
       <c r="B798" t="inlineStr"/>
@@ -12472,7 +12472,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
+          <t>Title: NYC One World Observatory: Skip-the-Queue Ticket</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12502,7 +12502,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12517,7 +12517,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P307</t>
+          <t>PRODUCTCODE: 8747CHAMP</t>
         </is>
       </c>
       <c r="B802" t="inlineStr"/>
@@ -12532,7 +12532,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Summarized description: Celebrate at One World Observatory with a glass of sparkling champagne. Your ticket includes entry to the One World observatory and a drink at ONE Mix. One Mix is located on level 101 of One World Observatory.</t>
         </is>
       </c>
       <c r="B803" t="inlineStr"/>
@@ -12547,7 +12547,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Title: New York Edge Sky Deck Admission Tickets</t>
+          <t>Title: Champagne Celebration with One World Observatory Admission</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12577,7 +12577,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12592,7 +12592,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P29</t>
+          <t>PRODUCTCODE: 324821P63</t>
         </is>
       </c>
       <c r="B807" t="inlineStr"/>
@@ -12607,7 +12607,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
+          <t>Summarized description:  Skip all the lines to the One World Observatory, located on floors 100-102 of the tallest building in the US. Enjoy live commentary and unparalleled views of the Empire State Building, the Statue of Liberty, the Brooklyn Bridge and more.</t>
         </is>
       </c>
       <c r="B808" t="inlineStr"/>
@@ -12622,7 +12622,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
+          <t>Title: Skip-the-line One World Observatory Tour with Transfers</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12652,7 +12652,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12667,7 +12667,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 378258P189</t>
+          <t>PRODUCTCODE: 255730P29</t>
         </is>
       </c>
       <c r="B812" t="inlineStr"/>
@@ -12682,7 +12682,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
+          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
         </is>
       </c>
       <c r="B813" t="inlineStr"/>
@@ -12697,7 +12697,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
+          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275645P2</t>
+          <t>PRODUCTCODE: 378258P189</t>
         </is>
       </c>
       <c r="B817" t="inlineStr"/>
@@ -12757,7 +12757,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
+          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B818" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
+          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12802,7 +12802,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 177373P17</t>
+          <t>PRODUCTCODE: 275645P2</t>
         </is>
       </c>
       <c r="B822" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
+          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
         </is>
       </c>
       <c r="B823" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
+          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P46</t>
+          <t>PRODUCTCODE: 177373P17</t>
         </is>
       </c>
       <c r="B827" t="inlineStr"/>
@@ -12907,7 +12907,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
         </is>
       </c>
       <c r="B828" t="inlineStr"/>
@@ -12922,7 +12922,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: One World Observatory Ticket</t>
+          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12952,7 +12952,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -12967,7 +12967,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130543P1</t>
+          <t>PRODUCTCODE: 116848P46</t>
         </is>
       </c>
       <c r="B832" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the construction of One World Observatory, the 1,776-foot-tall skyscraper built on the location of the original New York City World Trade Center. Visit the New York Stock Exchange, St Paul's Chapel, and The New York World's Fair.</t>
+          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
         </is>
       </c>
       <c r="B833" t="inlineStr"/>
@@ -12997,7 +12997,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Title: The One World Observatory, 911 Memorial Tour, Oculus &amp; A Downtown Walking Tour.</t>
+          <t>Title: Skip the Line: One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13027,7 +13027,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13042,7 +13042,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34556P6</t>
+          <t>PRODUCTCODE: 90219P179</t>
         </is>
       </c>
       <c r="B837" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Summarized description: One World Trade is the tallest building in the Western Hemisphere. Enjoy a luxury cruise around Manhattan and then walk across the street and climb to the top of the building.</t>
+          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
         </is>
       </c>
       <c r="B838" t="inlineStr"/>
@@ -13072,7 +13072,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Title: Luxury Boat Tour and One World Observatory Admission</t>
+          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13102,7 +13102,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13117,7 +13117,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P179</t>
+          <t>PRODUCTCODE: 116848P17</t>
         </is>
       </c>
       <c r="B842" t="inlineStr"/>
@@ -13132,7 +13132,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
+          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
         </is>
       </c>
       <c r="B843" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
+          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13177,7 +13177,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B846" t="inlineStr"/>
@@ -13192,7 +13192,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P17</t>
+          <t>PRODUCTCODE: 128905P252</t>
         </is>
       </c>
       <c r="B847" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
+          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
+          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13252,7 +13252,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P252</t>
+          <t>PRODUCTCODE: 368349P530</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -13282,7 +13282,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
+          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
         </is>
       </c>
       <c r="B853" t="inlineStr"/>
@@ -13297,7 +13297,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
+          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13327,7 +13327,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P530</t>
+          <t>PRODUCTCODE: 368349P498</t>
         </is>
       </c>
       <c r="B857" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
+          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr"/>
@@ -13372,7 +13372,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
+          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13402,7 +13402,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P498</t>
+          <t>PRODUCTCODE: 455518P8</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -13432,7 +13432,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
+          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
         </is>
       </c>
       <c r="B863" t="inlineStr"/>
@@ -13447,7 +13447,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
+          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13477,7 +13477,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 455518P8</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13504,81 +13504,6 @@
       <c r="H867" t="inlineStr"/>
       <c r="I867" t="inlineStr"/>
     </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
-          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
-        </is>
-      </c>
-      <c r="B868" t="inlineStr"/>
-      <c r="C868" t="inlineStr"/>
-      <c r="D868" t="inlineStr"/>
-      <c r="E868" t="inlineStr"/>
-      <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr"/>
-      <c r="I868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" t="inlineStr">
-        <is>
-          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
-        </is>
-      </c>
-      <c r="B869" t="inlineStr"/>
-      <c r="C869" t="inlineStr"/>
-      <c r="D869" t="inlineStr"/>
-      <c r="E869" t="inlineStr"/>
-      <c r="F869" t="inlineStr"/>
-      <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr"/>
-      <c r="I869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B870" t="inlineStr"/>
-      <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr"/>
-      <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr"/>
-      <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr"/>
-      <c r="I870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr"/>
-      <c r="C871" t="inlineStr"/>
-      <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
-      <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr"/>
-      <c r="I871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B872" t="inlineStr"/>
-      <c r="C872" t="inlineStr"/>
-      <c r="D872" t="inlineStr"/>
-      <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr"/>
-      <c r="I872" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/77354P1.xlsx
+++ b/experiment_results/77354P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I867"/>
+  <dimension ref="A1:I907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Winter Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Winter Sports']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Museums']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Winter Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Winter Sports']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Modern Attractions', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -11302,7 +11302,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11377,7 +11377,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11392,7 +11392,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P65</t>
+          <t>PRODUCTCODE: 76823P5</t>
         </is>
       </c>
       <c r="B727" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
+          <t>Summarized description: City Climb is the world's highest building ascent. Experience the ultimate adrenaline rush in NYC. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B728" t="inlineStr"/>
@@ -11422,7 +11422,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
+          <t xml:space="preserve">Title: City Climb: The Ultimate Skyscraping Adventure at Edge </t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11437,7 +11437,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B730" t="inlineStr"/>
@@ -11452,7 +11452,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11467,7 +11467,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P2</t>
+          <t>PRODUCTCODE: 7167P65</t>
         </is>
       </c>
       <c r="B732" t="inlineStr"/>
@@ -11482,7 +11482,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
         </is>
       </c>
       <c r="B733" t="inlineStr"/>
@@ -11497,7 +11497,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
+          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11512,7 +11512,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B735" t="inlineStr"/>
@@ -11527,7 +11527,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11542,7 +11542,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P248</t>
+          <t>PRODUCTCODE: 336379P12</t>
         </is>
       </c>
       <c r="B737" t="inlineStr"/>
@@ -11557,7 +11557,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
+          <t>Summarized description: New York City from the Top of the Rock Observation Deck at Rockefeller Plaza. Three floors of indoor and outdoor viewing areas where you can see NYC's famous landmarks. Flexible voucher redemption policy with no date restrictions.</t>
         </is>
       </c>
       <c r="B738" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
+          <t xml:space="preserve">Title: Top of the Rocks Observation Deck Open Ended Ticket with Upgrade </t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11587,7 +11587,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B740" t="inlineStr"/>
@@ -11602,7 +11602,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B741" t="inlineStr"/>
@@ -11617,7 +11617,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P425</t>
+          <t>PRODUCTCODE: 76823P2</t>
         </is>
       </c>
       <c r="B742" t="inlineStr"/>
@@ -11632,7 +11632,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B743" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
+          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11662,7 +11662,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B745" t="inlineStr"/>
@@ -11677,7 +11677,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11692,7 +11692,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P12</t>
+          <t>PRODUCTCODE: 15081P272</t>
         </is>
       </c>
       <c r="B747" t="inlineStr"/>
@@ -11707,7 +11707,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
+          <t>Summarized description: With your entry ticket to The Edge at Hudson Yard's, see the protruding 100-stories-high observation deck, with a glass floor, bar &amp; 360-degree NYC views. With your admission ticket to MoMA, see Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray.</t>
         </is>
       </c>
       <c r="B748" t="inlineStr"/>
@@ -11722,7 +11722,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
+          <t>Title: NYC Tickets: Edge Observation Deck St Patrick's Cathedral &amp; MoMA</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B750" t="inlineStr"/>
@@ -11752,7 +11752,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11767,7 +11767,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P9</t>
+          <t>PRODUCTCODE: 31070P248</t>
         </is>
       </c>
       <c r="B752" t="inlineStr"/>
@@ -11782,7 +11782,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
+          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
         </is>
       </c>
       <c r="B753" t="inlineStr"/>
@@ -11797,7 +11797,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
+          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11812,7 +11812,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B755" t="inlineStr"/>
@@ -11827,7 +11827,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11842,7 +11842,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P358</t>
+          <t>PRODUCTCODE: 15081P425</t>
         </is>
       </c>
       <c r="B757" t="inlineStr"/>
@@ -11857,7 +11857,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
+          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
         </is>
       </c>
       <c r="B758" t="inlineStr"/>
@@ -11872,7 +11872,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
+          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11887,7 +11887,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B760" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122012P14</t>
+          <t>PRODUCTCODE: 8747P12</t>
         </is>
       </c>
       <c r="B762" t="inlineStr"/>
@@ -11932,7 +11932,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
+          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
         </is>
       </c>
       <c r="B763" t="inlineStr"/>
@@ -11947,7 +11947,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
+          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -11962,7 +11962,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B765" t="inlineStr"/>
@@ -11977,7 +11977,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -11992,7 +11992,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P9</t>
+          <t>PRODUCTCODE: 8747P9</t>
         </is>
       </c>
       <c r="B767" t="inlineStr"/>
@@ -12007,7 +12007,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
+          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
         </is>
       </c>
       <c r="B768" t="inlineStr"/>
@@ -12022,7 +12022,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
+          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12037,7 +12037,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B770" t="inlineStr"/>
@@ -12052,7 +12052,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P41</t>
+          <t>PRODUCTCODE: 210206P358</t>
         </is>
       </c>
       <c r="B772" t="inlineStr"/>
@@ -12082,7 +12082,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
+          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
         </is>
       </c>
       <c r="B773" t="inlineStr"/>
@@ -12097,7 +12097,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
+          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12112,7 +12112,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B775" t="inlineStr"/>
@@ -12127,7 +12127,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P207</t>
+          <t>PRODUCTCODE: 122012P14</t>
         </is>
       </c>
       <c r="B777" t="inlineStr"/>
@@ -12157,7 +12157,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Summarized description: SkyPod is the fastest elevator in the world, reaching speeds of up to 28 mph. SkyPod presents a virtual time-lapse visual experience as it ascends, revealing how the perspective of New York City has changed since the 1500s.</t>
+          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
         </is>
       </c>
       <c r="B778" t="inlineStr"/>
@@ -12172,7 +12172,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line Ticket to One World Observatory with New York Self-Guided Tours</t>
+          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12187,7 +12187,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B780" t="inlineStr"/>
@@ -12202,7 +12202,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12217,7 +12217,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121855P10</t>
+          <t>PRODUCTCODE: 111861P9</t>
         </is>
       </c>
       <c r="B782" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Summarized description: New York City boasts one of the world’s most iconic skylines. We put traveller's favorite spots from which to gaze upon the best views in New York.</t>
+          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
         </is>
       </c>
       <c r="B783" t="inlineStr"/>
@@ -12247,7 +12247,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Pass: Empire State Building, Top of the Rock, One World Observatory</t>
+          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12262,7 +12262,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B785" t="inlineStr"/>
@@ -12277,7 +12277,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -12292,7 +12292,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75303P2</t>
+          <t>PRODUCTCODE: 130543P12</t>
         </is>
       </c>
       <c r="B787" t="inlineStr"/>
@@ -12307,7 +12307,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Summarized description: Our Spanish-speaking guides will show you the different neighborhoods that make up this exciting city. Excursion with which you will get a perfect idea of the composition of Manhattan.</t>
+          <t>Summarized description: The Rockefeller Center is in the midst of the best shopping and dining options in Midtown Manhattan. Admission to the 360 degrees Observatory on one of the tallest, most                  internationally famous buildings in the US.</t>
         </is>
       </c>
       <c r="B788" t="inlineStr"/>
@@ -12322,7 +12322,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Title: Upper and Lower Manhattan with tickets to One World Observatory</t>
+          <t>Title: Atop Of The Rock Experience The Rockefeller Plaza And Walkabout Midtown NYC</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12337,7 +12337,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B790" t="inlineStr"/>
@@ -12352,7 +12352,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12367,7 +12367,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P6</t>
+          <t>PRODUCTCODE: 186143P41</t>
         </is>
       </c>
       <c r="B792" t="inlineStr"/>
@@ -12382,7 +12382,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Summarized description: 4th of July celebration at One World Observatory at the top of One World Trade Center. Tickets to this event include admission to the Observatory from 8 pm - 10 pm, a two hour open bar.</t>
+          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
         </is>
       </c>
       <c r="B793" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Title: One World Observatory 4th of July Celebration Admission</t>
+          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12412,7 +12412,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B795" t="inlineStr"/>
@@ -12427,7 +12427,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P116</t>
+          <t>PRODUCTCODE: 183204P3</t>
         </is>
       </c>
       <c r="B797" t="inlineStr"/>
@@ -12457,7 +12457,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Summarized description: Be transported by Skypod to the 102nd floor in 47 seconds, seeing the evolution of the Manhattan skyline on the way. Step out onto the see-through Sky Portal for heart-racing views.</t>
+          <t>Summarized description: The Empire State Building was completed in 1931. The most iconic spot on this skyscraper is the 86th floor. The view from here is breathtaking, figuratively (and sometimes literally too)!</t>
         </is>
       </c>
       <c r="B798" t="inlineStr"/>
@@ -12472,7 +12472,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory: Skip-the-Queue Ticket</t>
+          <t>Title: Tickets for Empire State Building: Skip The Line</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12487,7 +12487,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B800" t="inlineStr"/>
@@ -12502,7 +12502,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12517,7 +12517,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747CHAMP</t>
+          <t>PRODUCTCODE: 137061P561</t>
         </is>
       </c>
       <c r="B802" t="inlineStr"/>
@@ -12532,7 +12532,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Summarized description: Celebrate at One World Observatory with a glass of sparkling champagne. Your ticket includes entry to the One World observatory and a drink at ONE Mix. One Mix is located on level 101 of One World Observatory.</t>
+          <t>Summarized description: Visit one of the most famous skyscrapers in New York, an observation deck overlooking popular landmarks. Take in the multi-million dollar 360° view from the height of 70 floors above ground.</t>
         </is>
       </c>
       <c r="B803" t="inlineStr"/>
@@ -12547,7 +12547,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Title: Champagne Celebration with One World Observatory Admission</t>
+          <t>Title: Top of the Rock Admission</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B805" t="inlineStr"/>
@@ -12577,7 +12577,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12592,7 +12592,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P63</t>
+          <t>PRODUCTCODE: 251291P44</t>
         </is>
       </c>
       <c r="B807" t="inlineStr"/>
@@ -12607,7 +12607,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Summarized description:  Skip all the lines to the One World Observatory, located on floors 100-102 of the tallest building in the US. Enjoy live commentary and unparalleled views of the Empire State Building, the Statue of Liberty, the Brooklyn Bridge and more.</t>
+          <t>Summarized description: The Top of the Rock Observation Deck offers 360-degree views of New York City. 9,500 square feet of outdoor viewing space, the most of any other NYC observatory.</t>
         </is>
       </c>
       <c r="B808" t="inlineStr"/>
@@ -12622,7 +12622,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line One World Observatory Tour with Transfers</t>
+          <t>Title: New York Top of the Rock Admission Ticket</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B810" t="inlineStr"/>
@@ -12667,7 +12667,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P29</t>
+          <t>PRODUCTCODE: 5250P59</t>
         </is>
       </c>
       <c r="B812" t="inlineStr"/>
@@ -12682,7 +12682,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
+          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
         </is>
       </c>
       <c r="B813" t="inlineStr"/>
@@ -12697,7 +12697,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
+          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12712,7 +12712,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B815" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 378258P189</t>
+          <t>PRODUCTCODE: 128905P307</t>
         </is>
       </c>
       <c r="B817" t="inlineStr"/>
@@ -12757,7 +12757,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
+          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B818" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
+          <t>Title: New York Edge Sky Deck Admission Tickets</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12802,7 +12802,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275645P2</t>
+          <t>PRODUCTCODE: 217534P10</t>
         </is>
       </c>
       <c r="B822" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
+          <t>Summarized description: Take in a 360-degree panorama of New York from 850 feet (260m) in the air at the Top of the Rock. Stroll between 2 floors with expansive indoor and outdoor viewing areas. Top off your visit by taking in breathtaking views of Central Park, Empire State Building, lower Manhattan.</t>
         </is>
       </c>
       <c r="B823" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
+          <t>Title: Skip the Line: Rockefeller Center Observation Deck Admission Ticket</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 177373P17</t>
+          <t>PRODUCTCODE: 198060P35</t>
         </is>
       </c>
       <c r="B827" t="inlineStr"/>
@@ -12907,7 +12907,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
+          <t>Summarized description: One world trade center proudly stands as one of the tallest buildings in the world. Now you can go up into the sky and enjoy spectacular views of New York City and beyond.</t>
         </is>
       </c>
       <c r="B828" t="inlineStr"/>
@@ -12922,7 +12922,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
+          <t>Title: United States New York One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12952,7 +12952,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -12967,7 +12967,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P46</t>
+          <t>PRODUCTCODE: 128905P215</t>
         </is>
       </c>
       <c r="B832" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
+          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world, reaching 1,776 feet. The observatory offers unprecedented panoramic views of New York City and beyond.</t>
         </is>
       </c>
       <c r="B833" t="inlineStr"/>
@@ -12997,7 +12997,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: One World Observatory Ticket</t>
+          <t>Title: One World Observatory</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13027,7 +13027,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13042,7 +13042,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P179</t>
+          <t>PRODUCTCODE: 122220P2</t>
         </is>
       </c>
       <c r="B837" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
+          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Skip-the-Line Admission to One World Observatory is available on a first come, first served basis.</t>
         </is>
       </c>
       <c r="B838" t="inlineStr"/>
@@ -13072,7 +13072,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
+          <t>Title: Skip the Line: One World Observatory Ticket (New York City)</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13102,7 +13102,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13117,7 +13117,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P17</t>
+          <t>PRODUCTCODE: 226727P44</t>
         </is>
       </c>
       <c r="B842" t="inlineStr"/>
@@ -13132,7 +13132,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
+          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world. Enjoy breathtaking views of NYC from One World Observatory. Explore the fascinating history and iconic landmarks of the Lower Manhattan with the private audio tour available on Wegotrip App.</t>
         </is>
       </c>
       <c r="B843" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
+          <t>Title: One World Observatory: Skip-The-Line + Sightseeing Audio Tour on Mobile App</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13177,7 +13177,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B846" t="inlineStr"/>
@@ -13192,7 +13192,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P252</t>
+          <t>PRODUCTCODE: 255071P12</t>
         </is>
       </c>
       <c r="B847" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
+          <t>Summarized description: Head up to the Top on the Sky Shuttle. Explore 2 floors with expansive indoor and outdoor viewing areas. Top off your visit with breathtaking views of Central Park, Empire State Building, downtown Manhattan.</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
+          <t>Title: New York Exclusive - Skip the Line: One World Observatory Visit Ticket</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13252,7 +13252,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P530</t>
+          <t>PRODUCTCODE: 378258P189</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -13282,7 +13282,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
+          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B853" t="inlineStr"/>
@@ -13297,7 +13297,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
+          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13327,7 +13327,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13342,7 +13342,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P498</t>
+          <t>PRODUCTCODE: 275645P2</t>
         </is>
       </c>
       <c r="B857" t="inlineStr"/>
@@ -13357,7 +13357,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
+          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
         </is>
       </c>
       <c r="B858" t="inlineStr"/>
@@ -13372,7 +13372,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
+          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13402,7 +13402,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 455518P8</t>
+          <t>PRODUCTCODE: 177373P17</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -13432,7 +13432,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
         </is>
       </c>
       <c r="B863" t="inlineStr"/>
@@ -13447,7 +13447,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
+          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13477,7 +13477,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13492,7 +13492,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 116848P46</t>
         </is>
       </c>
       <c r="B867" t="inlineStr"/>
@@ -13504,6 +13504,606 @@
       <c r="H867" t="inlineStr"/>
       <c r="I867" t="inlineStr"/>
     </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr"/>
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="inlineStr"/>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr"/>
+      <c r="I868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Title: Skip the Line: One World Observatory Ticket</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr"/>
+      <c r="C869" t="inlineStr"/>
+      <c r="D869" t="inlineStr"/>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr"/>
+      <c r="I869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr"/>
+      <c r="C870" t="inlineStr"/>
+      <c r="D870" t="inlineStr"/>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr"/>
+      <c r="I870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr"/>
+      <c r="C871" t="inlineStr"/>
+      <c r="D871" t="inlineStr"/>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr"/>
+      <c r="H871" t="inlineStr"/>
+      <c r="I871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90219P179</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr"/>
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="inlineStr"/>
+      <c r="E872" t="inlineStr"/>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr"/>
+      <c r="H872" t="inlineStr"/>
+      <c r="I872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr"/>
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr"/>
+      <c r="I873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr"/>
+      <c r="C874" t="inlineStr"/>
+      <c r="D874" t="inlineStr"/>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr"/>
+      <c r="I874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr"/>
+      <c r="C875" t="inlineStr"/>
+      <c r="D875" t="inlineStr"/>
+      <c r="E875" t="inlineStr"/>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="inlineStr"/>
+      <c r="H875" t="inlineStr"/>
+      <c r="I875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Museums']</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr"/>
+      <c r="C876" t="inlineStr"/>
+      <c r="D876" t="inlineStr"/>
+      <c r="E876" t="inlineStr"/>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" t="inlineStr"/>
+      <c r="I876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90219P280</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr"/>
+      <c r="C877" t="inlineStr"/>
+      <c r="D877" t="inlineStr"/>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr"/>
+      <c r="H877" t="inlineStr"/>
+      <c r="I877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the 86th floor Observation Deck of the iconic Empire State Building. Look out on New York City from 1,050 feet above the bustling streets below.</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr"/>
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr"/>
+      <c r="I878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Title: New York City Amazing Empire State Building General &amp; Skip-the-Line Tickets</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr"/>
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr"/>
+      <c r="I879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr"/>
+      <c r="C880" t="inlineStr"/>
+      <c r="D880" t="inlineStr"/>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr"/>
+      <c r="I880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Modern Attractions', 'Aerial Tours']</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr"/>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
+      <c r="I881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 116848P17</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr"/>
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="inlineStr"/>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr"/>
+      <c r="I882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
+      <c r="C883" t="inlineStr"/>
+      <c r="D883" t="inlineStr"/>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr"/>
+      <c r="I883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
+      <c r="C884" t="inlineStr"/>
+      <c r="D884" t="inlineStr"/>
+      <c r="E884" t="inlineStr"/>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr"/>
+      <c r="I884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr"/>
+      <c r="I885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr"/>
+      <c r="I886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 128905P252</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr"/>
+      <c r="C887" t="inlineStr"/>
+      <c r="D887" t="inlineStr"/>
+      <c r="E887" t="inlineStr"/>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr"/>
+      <c r="I887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr"/>
+      <c r="C888" t="inlineStr"/>
+      <c r="D888" t="inlineStr"/>
+      <c r="E888" t="inlineStr"/>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr"/>
+      <c r="I888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="inlineStr"/>
+      <c r="D889" t="inlineStr"/>
+      <c r="E889" t="inlineStr"/>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr"/>
+      <c r="I889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr"/>
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="inlineStr"/>
+      <c r="E890" t="inlineStr"/>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr"/>
+      <c r="I890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Category: ['Aerial Tours']</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr"/>
+      <c r="C891" t="inlineStr"/>
+      <c r="D891" t="inlineStr"/>
+      <c r="E891" t="inlineStr"/>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr"/>
+      <c r="I891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 368349P530</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr"/>
+      <c r="C892" t="inlineStr"/>
+      <c r="D892" t="inlineStr"/>
+      <c r="E892" t="inlineStr"/>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr"/>
+      <c r="I892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr"/>
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr"/>
+      <c r="E893" t="inlineStr"/>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr"/>
+      <c r="I893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr"/>
+      <c r="C894" t="inlineStr"/>
+      <c r="D894" t="inlineStr"/>
+      <c r="E894" t="inlineStr"/>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr"/>
+      <c r="I894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr"/>
+      <c r="D895" t="inlineStr"/>
+      <c r="E895" t="inlineStr"/>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
+      <c r="I895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr"/>
+      <c r="C896" t="inlineStr"/>
+      <c r="D896" t="inlineStr"/>
+      <c r="E896" t="inlineStr"/>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr"/>
+      <c r="H896" t="inlineStr"/>
+      <c r="I896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 368349P498</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr"/>
+      <c r="C897" t="inlineStr"/>
+      <c r="D897" t="inlineStr"/>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
+      <c r="I897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+      <c r="C898" t="inlineStr"/>
+      <c r="D898" t="inlineStr"/>
+      <c r="E898" t="inlineStr"/>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
+      <c r="I898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr"/>
+      <c r="C899" t="inlineStr"/>
+      <c r="D899" t="inlineStr"/>
+      <c r="E899" t="inlineStr"/>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
+      <c r="H899" t="inlineStr"/>
+      <c r="I899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr"/>
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="inlineStr"/>
+      <c r="E900" t="inlineStr"/>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr"/>
+      <c r="I900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+      <c r="C901" t="inlineStr"/>
+      <c r="D901" t="inlineStr"/>
+      <c r="E901" t="inlineStr"/>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr"/>
+      <c r="I901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 455518P8</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr"/>
+      <c r="C902" t="inlineStr"/>
+      <c r="D902" t="inlineStr"/>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr"/>
+      <c r="I902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr"/>
+      <c r="D903" t="inlineStr"/>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr"/>
+      <c r="I903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr"/>
+      <c r="C904" t="inlineStr"/>
+      <c r="D904" t="inlineStr"/>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr"/>
+      <c r="I904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr"/>
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="inlineStr"/>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr"/>
+      <c r="I905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr"/>
+      <c r="C906" t="inlineStr"/>
+      <c r="D906" t="inlineStr"/>
+      <c r="E906" t="inlineStr"/>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr"/>
+      <c r="I906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr"/>
+      <c r="C907" t="inlineStr"/>
+      <c r="D907" t="inlineStr"/>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr"/>
+      <c r="I907" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/77354P1.xlsx
+++ b/experiment_results/77354P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I907"/>
+  <dimension ref="A1:I844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 77354P1</t>
+          <t>REFERENCE PRODUCT: 77354P1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -545,7 +545,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT One Vanderbilt is the tallest commercial skyscraper in Midtown Manhattan. Enjoy spectacular 360 views of New York City and beyond on all 3 floors of SUMMIT.</t>
+          <t>pdt_product_detail_PRODUCTTITLE_translated: SUMMIT One Vanderbilt Experience Ticket</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -560,7 +560,8 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Title: SUMMIT One Vanderbilt Experience Ticket</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -575,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TotalReviews: 3476</t>
+          <t>SIMILAR PRODUCTS WITHOUT OPENAI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -590,7 +591,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>PRODUCTCODE: 2194EMPIRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -605,8 +606,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>Summarized description: The Empire State Building (ESB) is the World’s Most Famous Building. The 86th Floor Observation Deck, open daily, offers the highest 360 degree open-air vantage point in New York City. The 102nd floor offers unmatched, floor-to-ceiling views stretching up to 80 miles on a clear day.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -621,7 +621,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SIMILAR PRODUCTS WITHOUT OPENAI</t>
+          <t xml:space="preserve">Title: Empire State Building Ticket </t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -636,7 +636,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194EMPIRE</t>
+          <t>TotalReviews: 5178</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building (ESB) is the World’s Most Famous Building. The 86th Floor Observation Deck, open daily, offers the highest 360 degree open-air vantage point in New York City. The 102nd floor offers unmatched, floor-to-ceiling views stretching up to 80 miles on a clear day.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Empire State Building Ticket </t>
+          <t>PRODUCTCODE: 8747ONEWORLD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -681,7 +681,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TotalReviews: 5178</t>
+          <t>Summarized description: One World Observatory offers 360-degree views of the New York skyline from the highest point in the city. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: NYC One World Observatory Ticket Optional Upgrade Skip-the-Line</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -711,7 +711,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747ONEWORLD</t>
+          <t>TotalReviews: 2355</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory offers 360-degree views of the New York skyline from the highest point in the city. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -741,7 +741,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory Ticket Optional Upgrade Skip-the-Line</t>
+          <t>PRODUCTCODE: 76823P1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TotalReviews: 2355</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Edge Observation Deck Admission Ticket</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -786,7 +786,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P1</t>
+          <t>TotalReviews: 1708</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -816,7 +816,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Title: Edge Observation Deck Admission Ticket</t>
+          <t>PRODUCTCODE: 16981TICKET</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -831,7 +831,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TotalReviews: 1708</t>
+          <t>Summarized description: The Whitney Museum is New York's home for modern and contemporary art of the United States. Located in Manhattan's vibrant Meatpacking District, the Museum presents the work of living artists.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Whitney Museum Admission Ticket</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -861,7 +861,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16981TICKET</t>
+          <t>TotalReviews: 1531</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Summarized description: The Whitney Museum is New York's home for modern and contemporary art of the United States. Located in Manhattan's vibrant Meatpacking District, the Museum presents the work of living artists.</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -891,7 +891,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Title: Whitney Museum Admission Ticket</t>
+          <t>PRODUCTCODE: 5250P15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -906,7 +906,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TotalReviews: 1531</t>
+          <t>Summarized description: ExperienceFirst's tour takes you from Times Square to the historic Brooklyn Bridge and the Statue of Liberty. The tour provides exclusive access to the One World Observatory for a breathtaking perspective.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Title: Full-Day New York "Must See" Small-Group Tour plus One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -936,7 +936,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5250P15</t>
+          <t>TotalReviews: 1428</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Summarized description: ExperienceFirst's tour takes you from Times Square to the historic Brooklyn Bridge and the Statue of Liberty. The tour provides exclusive access to the One World Observatory for a breathtaking perspective.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -966,7 +966,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Title: Full-Day New York "Must See" Small-Group Tour plus One World Observatory Ticket</t>
+          <t>PRODUCTCODE: 35210P2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -981,7 +981,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TotalReviews: 1428</t>
+          <t>Summarized description: Discover the aircraft carrier Intrepid, the space shuttle Enterprise, the world’s fastest jets, and a guided missile submarine. All temporary exhibitions are included in your admission.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Intrepid Museum Admission Ticket</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35210P2</t>
+          <t>TotalReviews: 806</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the aircraft carrier Intrepid, the space shuttle Enterprise, the world’s fastest jets, and a guided missile submarine. All temporary exhibitions are included in your admission.</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1041,7 +1041,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Title: Intrepid Museum Admission Ticket</t>
+          <t>PRODUCTCODE: 2194AMPM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TotalReviews: 806</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. Day and night ticket allows you to experience the city from the world's most famous building. 360-degree observatory under the morning sun and the sparkling city lights the same night.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
+          <t>Title: Empire State Building Day and Night Admission Ticket</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194AMPM</t>
+          <t>TotalReviews: 682</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. Day and night ticket allows you to experience the city from the world's most famous building. 360-degree observatory under the morning sun and the sparkling city lights the same night.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Title: Empire State Building Day and Night Admission Ticket</t>
+          <t>PRODUCTCODE: 3242NYCCHI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TotalReviews: 682</t>
+          <t>Summarized description: 'Chicago' is the recipient of six Tony Awards, two Olivier Awards, a Grammy and thousands of standing ovations. See Broadway's red-hot musical smash 'Chicago'</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Chicago on Broadway Ticket</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1161,7 +1161,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242NYCCHI</t>
+          <t>TotalReviews: 369</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Summarized description: 'Chicago' is the recipient of six Tony Awards, two Olivier Awards, a Grammy and thousands of standing ovations. See Broadway's red-hot musical smash 'Chicago'</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1191,7 +1191,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Title: Chicago on Broadway Ticket</t>
+          <t>PRODUCTCODE: 49200SOLEI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1206,7 +1206,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TotalReviews: 369</t>
+          <t>Summarized description: If tour upgrade is selected, meet your guide on the steps outside of Castle Clinton's North Entrance (the far side from the water), a former fort inside Battery Park. Your ticket gives you access to the Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Statue of Liberty and Ellis Island Ticket</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 49200SOLEI</t>
+          <t>TotalReviews: 350</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Summarized description: If tour upgrade is selected, meet your guide on the steps outside of Castle Clinton's North Entrance (the far side from the water), a former fort inside Battery Park. Your ticket gives you access to the Ellis Island Immigration Museum.</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Ticket</t>
+          <t>PRODUCTCODE: 34997P1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TotalReviews: 350</t>
+          <t>Summarized description: Discover New York City's most secretive speakeasies on this guided, 3-hour, small-group walking tour in Lower Manhattan. Skip the lines with reserved tables, sip craft cocktails, and turn back the clock to the roaring 20s.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Title: Skip the Line NYC Speakeasy Walking Tour Ticket</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34997P1</t>
+          <t>TotalReviews: 303</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Summarized description: Discover New York City's most secretive speakeasies on this guided, 3-hour, small-group walking tour in Lower Manhattan. Skip the lines with reserved tables, sip craft cocktails, and turn back the clock to the roaring 20s.</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Title: Skip the Line NYC Speakeasy Walking Tour Ticket</t>
+          <t>PRODUCTCODE: 3242NYCJER</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TotalReviews: 303</t>
+          <t>Summarized description: This behind-the-music story of Frankie Valli and The Four Seasons will take you from the streets of Newark to the heights of stardom. Follow the incredible journey of four guys bound by one dream.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Title: Jersey Boys Off Broadway Ticket</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1386,7 +1386,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242NYCJER</t>
+          <t>TotalReviews: 250</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Summarized description: This behind-the-music story of Frankie Valli and The Four Seasons will take you from the streets of Newark to the heights of stardom. Follow the incredible journey of four guys bound by one dream.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Title: Jersey Boys Off Broadway Ticket</t>
+          <t>PRODUCTCODE: 3242ALADDIN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1431,7 +1431,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TotalReviews: 250</t>
+          <t>Summarized description: New York City’s New Amsterdam Theater. A splashy set turns the stage into Agrabah, a city inhabited by royalty. Audiences of all ages can delight in the original award-winning score.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Disney's Aladdin on Broadway Ticket</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1461,7 +1461,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242ALADDIN</t>
+          <t>TotalReviews: 202</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Summarized description: New York City’s New Amsterdam Theater. A splashy set turns the stage into Agrabah, a city inhabited by royalty. Audiences of all ages can delight in the original award-winning score.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Title: Disney's Aladdin on Broadway Ticket</t>
+          <t>PRODUCTCODE: 3242P172</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TotalReviews: 202</t>
+          <t>Summarized description: MJ is the electrifying new Broadway musical that takes audiences inside the creative process of one of the greatest entertainers in history. Featuring over 25 of Michael Jackson’s biggest hits, MJ allows us to rediscover the man in the mirror.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: MJ The Musical on Broadway Ticket</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P172</t>
+          <t>TotalReviews: 184</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Summarized description: MJ is the electrifying new Broadway musical that takes audiences inside the creative process of one of the greatest entertainers in history. Featuring over 25 of Michael Jackson’s biggest hits, MJ allows us to rediscover the man in the mirror.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1566,7 +1566,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Title: MJ The Musical on Broadway Ticket</t>
+          <t>PRODUCTCODE: 3242NYCRAD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TotalReviews: 184</t>
+          <t>Summarized description: America's most beloved holiday theatrical, the ‘Radio City Christmas Spectacular,’ starring the world-famous Rockettes, returns to New York City's Radio City Music Hall this Christmas season. Don't miss out on this exciting Christmas celebration -- book now!</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Radio City Music Hall Christmas Spectacular Ticket</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1611,7 +1611,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242NYCRAD</t>
+          <t>TotalReviews: 128</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Summarized description: America's most beloved holiday theatrical, the ‘Radio City Christmas Spectacular,’ starring the world-famous Rockettes, returns to New York City's Radio City Music Hall this Christmas season. Don't miss out on this exciting Christmas celebration -- book now!</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1641,7 +1641,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Title: Radio City Music Hall Christmas Spectacular Ticket</t>
+          <t>PRODUCTCODE: 8747P7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TotalReviews: 128</t>
+          <t>Summarized description: Take an astonishing ride in the SkyPod Elevators as you climb 102 stories in 47 seconds. Enjoy 2 drinks (choice of beer, wine or prosecco) with your ticket for a truly unforgettable experience.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: New York City One World Observatory Drink in the View Ticket</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P7</t>
+          <t>TotalReviews: 97</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Summarized description: Take an astonishing ride in the SkyPod Elevators as you climb 102 stories in 47 seconds. Enjoy 2 drinks (choice of beer, wine or prosecco) with your ticket for a truly unforgettable experience.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Title: New York City One World Observatory Drink in the View Ticket</t>
+          <t>PRODUCTCODE: 8747P10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TotalReviews: 97</t>
+          <t>Summarized description: The COMBINATION EXPERIENCE includes PRIORITY access to all Observatory levels for skyline views and all multimedia experiences. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage or retail items.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Skip-the-Line NYC One World Observatory Combo Ticket</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P10</t>
+          <t>TotalReviews: 86</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Summarized description: The COMBINATION EXPERIENCE includes PRIORITY access to all Observatory levels for skyline views and all multimedia experiences. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage or retail items.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1791,7 +1791,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line NYC One World Observatory Combo Ticket</t>
+          <t>PRODUCTCODE: 9901P1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TotalReviews: 86</t>
+          <t>Summarized description: The Woolworth Building was granted New York City Landmark status in 1983. Explore the lobby and marvel at the grand entrance to what was the tallest building in the world for 17 years. Dubbed “the Cathedral of Commerce," this historic landmark is unrivaled by any other on the North American continent.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Skip the Line: Woolworth Building Lobby Tour Ticket</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1836,7 +1836,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9901P1</t>
+          <t>TotalReviews: 75</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Summarized description: The Woolworth Building was granted New York City Landmark status in 1983. Explore the lobby and marvel at the grand entrance to what was the tallest building in the world for 17 years. Dubbed “the Cathedral of Commerce," this historic landmark is unrivaled by any other on the North American continent.</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1866,7 +1866,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Woolworth Building Lobby Tour Ticket</t>
+          <t>PRODUCTCODE: 3242MOCKINGBIR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TotalReviews: 75</t>
+          <t>Summarized description:  Harper Lee’s Pulitzer Prize-Winning American classic To Kill a Mockingbird comes to Broadway in a new adaptation by Aaron Sorkin. Directed by Bartlett Sher.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Title: To Kill a Mockingbird on Broadway Ticket</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1911,7 +1911,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242MOCKINGBIR</t>
+          <t>TotalReviews: 72</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1926,7 +1926,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Summarized description:  Harper Lee’s Pulitzer Prize-Winning American classic To Kill a Mockingbird comes to Broadway in a new adaptation by Aaron Sorkin. Directed by Bartlett Sher.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Title: To Kill a Mockingbird on Broadway Ticket</t>
+          <t>PRODUCTCODE: 3242AINTPROUD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TotalReviews: 72</t>
+          <t>Summarized description: AIN'T TOO PROUD is the electrifying new musical that follows The Temptations' extraordinary journey from the streets of Detroit to the Rock &amp; Roll Hall of Fame.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Ain't Too Proud - The Life and Times of The Temptations Broadway Ticket</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -1986,7 +1986,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242AINTPROUD</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Summarized description: AIN'T TOO PROUD is the electrifying new musical that follows The Temptations' extraordinary journey from the streets of Detroit to the Rock &amp; Roll Hall of Fame.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2016,7 +2016,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Title: Ain't Too Proud - The Life and Times of The Temptations Broadway Ticket</t>
+          <t>PRODUCTCODE: 76823P5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -2031,7 +2031,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>Summarized description: City Climb is the world's highest building ascent. Experience the ultimate adrenaline rush in NYC. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t xml:space="preserve">Title: City Climb: The Ultimate Skyscraping Adventure at Edge </t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2061,7 +2061,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P5</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -2076,7 +2076,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Summarized description: City Climb is the world's highest building ascent. Experience the ultimate adrenaline rush in NYC. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: City Climb: The Ultimate Skyscraping Adventure at Edge </t>
+          <t>PRODUCTCODE: 76824P1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>Summarized description: Hudson Yards is the tallest building in New York City. It features a spiral staircase with almost 2,500 steps and 80 landings. Tickets are required for all visitors.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
+          <t>Title: Vessel at Hudson Yards - General Admission</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2136,7 +2136,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76824P1</t>
+          <t>TotalReviews: 57</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Summarized description: Hudson Yards is the tallest building in New York City. It features a spiral staircase with almost 2,500 steps and 80 landings. Tickets are required for all visitors.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -2166,7 +2166,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Title: Vessel at Hudson Yards - General Admission</t>
+          <t>PRODUCTCODE: 58199P2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -2181,7 +2181,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TotalReviews: 57</t>
+          <t>Summarized description: National Geographic Encounter is a new, interactive entertainment attraction in Times Square that journeys through the Pacific Ocean over one incredible night. Dive into a virtual ocean where high tech meets the deep sea.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: National Geographic Encounter: Ocean Odyssey Admission Ticket</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2211,7 +2211,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 58199P2</t>
+          <t>TotalReviews: 56</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Summarized description: National Geographic Encounter is a new, interactive entertainment attraction in Times Square that journeys through the Pacific Ocean over one incredible night. Dive into a virtual ocean where high tech meets the deep sea.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2241,7 +2241,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Title: National Geographic Encounter: Ocean Odyssey Admission Ticket</t>
+          <t>PRODUCTCODE: 8199P1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -2256,7 +2256,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TotalReviews: 56</t>
+          <t>Summarized description: Get ready for an unforgettable evening filled with singing, laughter, drinks, dancing, and pure entertainment. 2 of the top piano entertainers in NYC play all your favorites from Billy Joel to Bon Jovi to Britney Spears.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Skip the Line: Shake, Rattle and Roll Dueling Pianos Show Ticket</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8199P1</t>
+          <t>TotalReviews: 52</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Summarized description: Get ready for an unforgettable evening filled with singing, laughter, drinks, dancing, and pure entertainment. 2 of the top piano entertainers in NYC play all your favorites from Billy Joel to Bon Jovi to Britney Spears.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Shake, Rattle and Roll Dueling Pianos Show Ticket</t>
+          <t>PRODUCTCODE: 2194SUNRISE</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -2331,7 +2331,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>Summarized description: The sunrise experience is a must see for any visitor to New York City. Experience the awakening of the Empire State Building and New York city.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Rise and Shine: Sunrise Experience at the Empire State Building</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194SUNRISE</t>
+          <t>TotalReviews: 47</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Summarized description: The sunrise experience is a must see for any visitor to New York City. Experience the awakening of the Empire State Building and New York city.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2391,7 +2391,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Title: Rise and Shine: Sunrise Experience at the Empire State Building</t>
+          <t>PRODUCTCODE: 6390NCE</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TotalReviews: 47</t>
+          <t>Summarized description: Party the night away in the city that never sleeps on this weekend tour of some of New York City's hottest nightclubs. Bypass the velvet ropes with skip-the-line access to the VIP area of premier clubs.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Skip the Line New York Night Club Experience Ticket</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2436,7 +2436,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6390NCE</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Summarized description: Party the night away in the city that never sleeps on this weekend tour of some of New York City's hottest nightclubs. Bypass the velvet ropes with skip-the-line access to the VIP area of premier clubs.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Title: Skip the Line New York Night Club Experience Ticket</t>
+          <t>PRODUCTCODE: 7167P65</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P65</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
+          <t>PRODUCTCODE: 44983P12</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -2556,7 +2556,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>Summarized description: Learn the events surrounding Operation Aegis, the largest rescue by sea in history. The tour concludes inside the new WTC complex, where details of its design and construction are revealed. All tours are in small groups with a maximum of 25 adults.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Title: Ground Zero Tour with One World Observatory Access</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 44983P12</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the events surrounding Operation Aegis, the largest rescue by sea in history. The tour concludes inside the new WTC complex, where details of its design and construction are revealed. All tours are in small groups with a maximum of 25 adults.</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Title: Ground Zero Tour with One World Observatory Access</t>
+          <t>PRODUCTCODE: 7605P14</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>Summarized description: Celebrate this holiday with some of NYC’s best gospel choirs and singers. Come prepared to sing, dance, make noise, and have an unforgettable time!</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Title: Harlem Gospel Choir Holiday Celebration Ticket @Mt. Olivet Church</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7605P14</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Summarized description: Celebrate this holiday with some of NYC’s best gospel choirs and singers. Come prepared to sing, dance, make noise, and have an unforgettable time!</t>
+          <t>Category: ['Performing Arts']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Title: Harlem Gospel Choir Holiday Celebration Ticket @Mt. Olivet Church</t>
+          <t>PRODUCTCODE: 13616P13</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -2706,7 +2706,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>Summarized description: St. Paul's Chapel, The 9/11 Memorial, The Oculus, Brookfield Place and NYC's newest and most popular observation deck at One World Observatory.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts']</t>
+          <t>Title: World Trade Center Walking Tour with One World Observatory Admission</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2736,7 +2736,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P13</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Summarized description: St. Paul's Chapel, The 9/11 Memorial, The Oculus, Brookfield Place and NYC's newest and most popular observation deck at One World Observatory.</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Title: World Trade Center Walking Tour with One World Observatory Admission</t>
+          <t>PRODUCTCODE: 336379P12</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>Summarized description: New York City from the Top of the Rock Observation Deck at Rockefeller Plaza. Three floors of indoor and outdoor viewing areas where you can see NYC's famous landmarks. Flexible voucher redemption policy with no date restrictions.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t xml:space="preserve">Title: Top of the Rocks Observation Deck Open Ended Ticket with Upgrade </t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P12</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Summarized description: New York City from the Top of the Rock Observation Deck at Rockefeller Plaza. Three floors of indoor and outdoor viewing areas where you can see NYC's famous landmarks. Flexible voucher redemption policy with no date restrictions.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2841,7 +2841,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Top of the Rocks Observation Deck Open Ended Ticket with Upgrade </t>
+          <t>PRODUCTCODE: 36144P1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>Summarized description: Luna Park is New York City’s largest amusement park. Located in the iconic seaside mecca of Coney island. Enjoy unlimited fun on more than 50+ rides and games.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Skip the Line: Luna Park Coney Island Pass Ticket</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 36144P1</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Summarized description: Luna Park is New York City’s largest amusement park. Located in the iconic seaside mecca of Coney island. Enjoy unlimited fun on more than 50+ rides and games.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Luna Park Coney Island Pass Ticket</t>
+          <t>PRODUCTCODE: 3242P221</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>Summarized description: Romeo &amp; Juliet comes direct from London’s West End with an award-winning team that includes songwriter and music producer Max Martin and director Jennifer Weber.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t xml:space="preserve">Title: &amp; Juliet on Broadway Ticket </t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -2961,7 +2961,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P221</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Summarized description: Romeo &amp; Juliet comes direct from London’s West End with an award-winning team that includes songwriter and music producer Max Martin and director Jennifer Weber.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2991,7 +2991,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: &amp; Juliet on Broadway Ticket </t>
+          <t>PRODUCTCODE: 8072P11</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -3006,7 +3006,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>Summarized description: Broadway Comedy Club provides value for money by providing customers with four headliners per show. Voted one of the city's best hilarious venues showcasing new and rising comic talent.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Broadway Comedy Club Stand-Up Comedy Show Ticket</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3036,7 +3036,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8072P11</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Summarized description: Broadway Comedy Club provides value for money by providing customers with four headliners per show. Voted one of the city's best hilarious venues showcasing new and rising comic talent.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Title: Broadway Comedy Club Stand-Up Comedy Show Ticket</t>
+          <t>PRODUCTCODE: 3242P177</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>Summarized description: Hamilton is the story of the unlikely Founding Father determined to make his mark on the new nation. From orphan to Washington's right-hand man, rebel to war hero, a loving husband caught in the country's first sex scandal.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: Hamilton on Broadway Ticket</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3111,7 +3111,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P177</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Summarized description: Hamilton is the story of the unlikely Founding Father determined to make his mark on the new nation. From orphan to Washington's right-hand man, rebel to war hero, a loving husband caught in the country's first sex scandal.</t>
+          <t>Category: ['Performing Arts', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3141,7 +3141,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Title: Hamilton on Broadway Ticket</t>
+          <t>PRODUCTCODE: 3242MEAN</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -3156,7 +3156,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>Summarized description: Mean Girls is a new musical from director Casey Nicholaw, composer Jeff Richmond, lyricist Nell Benjamin and book writer Tina Fey. The musical is produced by Lorne Michaels, Stuart Thompson and Paramount Pictures.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours', 'Performing Arts']</t>
+          <t>Title: Mean Girls on Broadway Ticket</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3186,7 +3186,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242MEAN</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -3201,7 +3201,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Summarized description: Mean Girls is a new musical from director Casey Nicholaw, composer Jeff Richmond, lyricist Nell Benjamin and book writer Tina Fey. The musical is produced by Lorne Michaels, Stuart Thompson and Paramount Pictures.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -3216,7 +3216,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Title: Mean Girls on Broadway Ticket</t>
+          <t>PRODUCTCODE: 76823P2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -3231,7 +3231,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3261,7 +3261,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P2</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -3291,7 +3291,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
+          <t>PRODUCTCODE: 3242P182</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -3306,7 +3306,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>Summarized description: The New York Times calls The Book of Mormon "the best musical of this century" Entertainment Weekly says it is "Grade A: the funniest musical of all time" Jimmy Fallon of The Tonight Show calls it "Genius. Brilliant. Phenomenal"</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: The Book of Mormon on Broadway Ticket</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3336,7 +3336,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P182</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Summarized description: The New York Times calls The Book of Mormon "the best musical of this century" Entertainment Weekly says it is "Grade A: the funniest musical of all time" Jimmy Fallon of The Tonight Show calls it "Genius. Brilliant. Phenomenal"</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -3366,7 +3366,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Title: The Book of Mormon on Broadway Ticket</t>
+          <t>PRODUCTCODE: 15081P505</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -3381,7 +3381,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>Summarized description: Wollman Rink is located in the heart of Central Park. The rink is meticulously maintained, ensuring a perfect surface for every twirl, jump, &amp; spin.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: New York Central Park Ice Skating Tickets at Wollman Rink</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3411,7 +3411,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P505</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Summarized description: Wollman Rink is located in the heart of Central Park. The rink is meticulously maintained, ensuring a perfect surface for every twirl, jump, &amp; spin.</t>
+          <t>Category: ['Winter Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -3441,7 +3441,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Title: New York Central Park Ice Skating Tickets at Wollman Rink</t>
+          <t>PRODUCTCODE: 15081P272</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -3456,7 +3456,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>Summarized description: With your entry ticket to The Edge at Hudson Yard's, see the protruding 100-stories-high observation deck, with a glass floor, bar &amp; 360-degree NYC views. With your admission ticket to MoMA, see Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Winter Sports']</t>
+          <t>Title: NYC Tickets: Edge Observation Deck St Patrick's Cathedral &amp; MoMA</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3486,7 +3486,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P272</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Summarized description: With your entry ticket to The Edge at Hudson Yard's, see the protruding 100-stories-high observation deck, with a glass floor, bar &amp; 360-degree NYC views. With your admission ticket to MoMA, see Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray.</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3516,7 +3516,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Title: NYC Tickets: Edge Observation Deck St Patrick's Cathedral &amp; MoMA</t>
+          <t>PRODUCTCODE: 31070P248</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3531,7 +3531,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3561,7 +3561,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P248</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3591,7 +3591,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
+          <t>PRODUCTCODE: 64880P7</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -3606,7 +3606,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>Summarized description: Opened in 1903, the Hudson is the oldest theater currently open on Broadway. From a television studio to the home of "The Tonight Show" to a renovated Broadway house, Hudson Theatre has a fascinating 115 year history.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Skip the Line: Tour of Historic Hudson Theatre Ticket</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3636,7 +3636,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64880P7</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Summarized description: Opened in 1903, the Hudson is the oldest theater currently open on Broadway. From a television studio to the home of "The Tonight Show" to a renovated Broadway house, Hudson Theatre has a fascinating 115 year history.</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3666,7 +3666,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Tour of Historic Hudson Theatre Ticket</t>
+          <t>PRODUCTCODE: 15081P425</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -3681,7 +3681,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3711,7 +3711,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P425</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -3726,7 +3726,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3741,7 +3741,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
+          <t>PRODUCTCODE: 3784P5</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -3756,7 +3756,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>Summarized description: Go on a guided tour of Top of the Rock Observation Deck with expedited entry, priority elevator access, a private experience on The Beam, the Photo Pass and 20% off at the gift shop.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
+          <t>Title: VIP Top of the Rock Pass: Priority Entry, Guided Tour, The Beam</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3786,7 +3786,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3784P5</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -3801,7 +3801,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Summarized description: Go on a guided tour of Top of the Rock Observation Deck with expedited entry, priority elevator access, a private experience on The Beam, the Photo Pass and 20% off at the gift shop.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Title: VIP Top of the Rock Pass: Priority Entry, Guided Tour, The Beam</t>
+          <t>PRODUCTCODE: 8747P12</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -3831,7 +3831,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3861,7 +3861,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P12</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -3891,7 +3891,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
+          <t>PRODUCTCODE: 69409P1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>Summarized description: Historic Richmond Town was founded as the Staten Island Historical Society in 1856. The museum's focus is to create opportunities for the public to explore the diversity of the American experience from the colonial period to the present.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Historic Richmond Town Admission Ticket</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 69409P1</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -3951,7 +3951,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Summarized description: Historic Richmond Town was founded as the Staten Island Historical Society in 1856. The museum's focus is to create opportunities for the public to explore the diversity of the American experience from the colonial period to the present.</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Title: Historic Richmond Town Admission Ticket</t>
+          <t>PRODUCTCODE: 2194P3</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -3981,7 +3981,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>Summarized description: The Empire State Building’s 86th floor open-air Observatory will be closed except to a select few. Enjoy expansive unobstructed views of the show while enjoying gourmet hors d'oeuvres and a premium open bar. TV screens and speakers will be setup inside the event displaying the broadcast presentation.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Title: Empire State Building The Ultimate 4th of July Celebration Ticket</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194P3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building’s 86th floor open-air Observatory will be closed except to a select few. Enjoy expansive unobstructed views of the show while enjoying gourmet hors d'oeuvres and a premium open bar. TV screens and speakers will be setup inside the event displaying the broadcast presentation.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -4041,7 +4041,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Title: Empire State Building The Ultimate 4th of July Celebration Ticket</t>
+          <t>PRODUCTCODE: 3242P190</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -4056,7 +4056,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>Summarized description: Hugh Jackman will play Professor Harold Hill in The Music Man. Sutton Foster will star as Marian Paroo. The production is directed by four-time Tony Award winner Jerry Zaks.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t xml:space="preserve">Title: The Music Man on Broadway Ticket </t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4086,7 +4086,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P190</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Summarized description: Hugh Jackman will play Professor Harold Hill in The Music Man. Sutton Foster will star as Marian Paroo. The production is directed by four-time Tony Award winner Jerry Zaks.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -4116,7 +4116,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Music Man on Broadway Ticket </t>
+          <t>PRODUCTCODE: 3242P245</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -4131,7 +4131,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>Summarized description: Allie and Noah, both from different worlds, share a lifetime of love despite the forces that threaten to pull them apart. Chris Jones of The Chicago Tribune says The Notebook is “absolutely gorgeous – not to be missed!”</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: The Notebook on Broadway Ticket</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P245</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Summarized description: Allie and Noah, both from different worlds, share a lifetime of love despite the forces that threaten to pull them apart. Chris Jones of The Chicago Tribune says The Notebook is “absolutely gorgeous – not to be missed!”</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4191,7 +4191,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Title: The Notebook on Broadway Ticket</t>
+          <t>PRODUCTCODE: 5277P20</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -4206,7 +4206,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>Summarized description: Superhero Tour of New York visits film locations from the major Hollywood blockbusters as well as real life comic locations. What better way to see the splendour of NYC than through the eyes of its Superheroes?!</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Skip the Line Superhero Tour of New York Ticket</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4236,7 +4236,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5277P20</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Summarized description: Superhero Tour of New York visits film locations from the major Hollywood blockbusters as well as real life comic locations. What better way to see the splendour of NYC than through the eyes of its Superheroes?!</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -4266,7 +4266,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Title: Skip the Line Superhero Tour of New York Ticket</t>
+          <t>PRODUCTCODE: 8747P9</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4311,7 +4311,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P9</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -4341,7 +4341,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
+          <t>PRODUCTCODE: 130543P2</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -4356,7 +4356,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>Summarized description: Visit the St Paul's Chapel On Broadway an important 250-year-old landmark in NYC. Learn about the construction of this 1,776-foot skyscraper, built on the grounds of the original World Trade Center. Be awed by the 360' views 50 miles across the city's skies.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title:  Downtown NYC Walking Tour &amp; One World Observatory Standard Admission Ticket</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4386,7 +4386,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130543P2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the St Paul's Chapel On Broadway an important 250-year-old landmark in NYC. Learn about the construction of this 1,776-foot skyscraper, built on the grounds of the original World Trade Center. Be awed by the 360' views 50 miles across the city's skies.</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -4416,7 +4416,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Title:  Downtown NYC Walking Tour &amp; One World Observatory Standard Admission Ticket</t>
+          <t>PRODUCTCODE: 3242P189</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -4431,7 +4431,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: "Paradise Square" is a galvanizing story of racial harmony undone by a country at war with itself. Set to a contemporary score that reimagines early American song, it depicts an overlooked true-life moment when hope and possibility shone bright.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t xml:space="preserve">Title: Paradise Square on Broadway Ticket </t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4461,7 +4461,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P189</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Summarized description: "Paradise Square" is a galvanizing story of racial harmony undone by a country at war with itself. Set to a contemporary score that reimagines early American song, it depicts an overlooked true-life moment when hope and possibility shone bright.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -4491,7 +4491,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Paradise Square on Broadway Ticket </t>
+          <t>PRODUCTCODE: 3242P231</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -4506,7 +4506,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: After sold-out, critically acclaimed runs at The Public Theater, National Theatre, and Seattle Rep, Here Lies Love is now on Broadway. With choreography by Annie-B Parson and directed by Alex Timbers, the theater is transformed into a dance club.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t xml:space="preserve">Title: Here Lies Love On Broadway Ticket </t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4536,7 +4536,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P231</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -4551,7 +4551,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Summarized description: After sold-out, critically acclaimed runs at The Public Theater, National Theatre, and Seattle Rep, Here Lies Love is now on Broadway. With choreography by Annie-B Parson and directed by Alex Timbers, the theater is transformed into a dance club.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -4566,7 +4566,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Here Lies Love On Broadway Ticket </t>
+          <t>PRODUCTCODE: 210206P358</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -4581,7 +4581,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4611,7 +4611,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P358</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -4641,7 +4641,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
+          <t>PRODUCTCODE: 3242NYCOPERA</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -4656,7 +4656,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: The Metropolitan Opera is located at the famed Lincoln Center for the Performing Arts. You'll enjoy a prime vantage point for watching one of Puccini’s most popular operas.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: La Bohème at the Metropolitan Opera House Ticket</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4686,7 +4686,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242NYCOPERA</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -4701,7 +4701,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Summarized description: The Metropolitan Opera is located at the famed Lincoln Center for the Performing Arts. You'll enjoy a prime vantage point for watching one of Puccini’s most popular operas.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -4716,7 +4716,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Title: La Bohème at the Metropolitan Opera House Ticket</t>
+          <t>PRODUCTCODE: 3242P194</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -4731,7 +4731,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: Leopoldstadt will play on Broadway beginning September 2022. Set in Vienna, the play takes its title from the Jewish quarter. Full of his customary wit and beauty, Stoppard’s late work spans fifty years of time.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Leopoldstadt on Broadway Ticket</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4761,7 +4761,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P194</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Summarized description: Leopoldstadt will play on Broadway beginning September 2022. Set in Vienna, the play takes its title from the Jewish quarter. Full of his customary wit and beauty, Stoppard’s late work spans fifty years of time.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -4791,7 +4791,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Title: Leopoldstadt on Broadway Ticket</t>
+          <t>PRODUCTCODE: 3242P240</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -4806,7 +4806,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>Summarized description: Purlie Victorious: A Non-Confederate Romp Through the Cotton Patch is the rousing, laugh-filled comedy by Kennedy Center honoree Ossie Davis. Directed by Tony Award winner Kenny Leon.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Purlie Victorious on Broadway Ticket</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4836,7 +4836,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P240</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -4851,7 +4851,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Summarized description: Purlie Victorious: A Non-Confederate Romp Through the Cotton Patch is the rousing, laugh-filled comedy by Kennedy Center honoree Ossie Davis. Directed by Tony Award winner Kenny Leon.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -4866,7 +4866,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Title: Purlie Victorious on Broadway Ticket</t>
+          <t>PRODUCTCODE: 52962P2</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -4881,7 +4881,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>Summarized description: The tour focuses on the Uptown and Midtown neighborhoods. At designated stops, your guide travels along with you to share history and insights.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Skip the Line See the Best of NYC: Small-Group Guided Tour Ticket</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4911,7 +4911,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 52962P2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -4926,7 +4926,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Summarized description: The tour focuses on the Uptown and Midtown neighborhoods. At designated stops, your guide travels along with you to share history and insights.</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Title: Skip the Line See the Best of NYC: Small-Group Guided Tour Ticket</t>
+          <t>PRODUCTCODE: 8747P5</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>Summarized description: VIP 4th of July celebration at One World Observatory at the top of One World Trade Center. Tickets to this event include admission to the Observatory from 8 pm - 10 pm, access to the VIP Lounge, a two hour upgraded open bar.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Title: One World Observatory 4th of July Celebration - VIP Admission</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Summarized description: VIP 4th of July celebration at One World Observatory at the top of One World Trade Center. Tickets to this event include admission to the Observatory from 8 pm - 10 pm, access to the VIP Lounge, a two hour upgraded open bar.</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5016,7 +5016,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Title: One World Observatory 4th of July Celebration - VIP Admission</t>
+          <t>PRODUCTCODE: 122012P14</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -5031,7 +5031,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5061,7 +5061,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122012P14</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
+          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -5091,7 +5091,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
+          <t>PRODUCTCODE: 117627P5</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -5106,7 +5106,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Jimmy Fallon, Jay-Z, Beyonce, Montel Williams, and Andre Agassi have all graced this club with their presence. Enjoy classic comedy in NYC at the Greenwich Village Comedy Club.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
+          <t>Title: Greenwich Village Comedy Club Ticket</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117627P5</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Summarized description: Jimmy Fallon, Jay-Z, Beyonce, Montel Williams, and Andre Agassi have all graced this club with their presence. Enjoy classic comedy in NYC at the Greenwich Village Comedy Club.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -5166,7 +5166,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Title: Greenwich Village Comedy Club Ticket</t>
+          <t>PRODUCTCODE: 2194P1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -5181,7 +5181,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: The Macy's Fourth of July Fireworks Spectacular will take place from the 86th floor open air deck. The event will be held from 7:30 PM – 9:45 PM, with all ages welcome.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: Empire State Building Fourth of July Fireworks Party Ticket</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5211,7 +5211,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194P1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -5226,7 +5226,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Summarized description: The Macy's Fourth of July Fireworks Spectacular will take place from the 86th floor open air deck. The event will be held from 7:30 PM – 9:45 PM, with all ages welcome.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -5241,7 +5241,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Title: Empire State Building Fourth of July Fireworks Party Ticket</t>
+          <t>PRODUCTCODE: 5026P17</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -5256,7 +5256,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: The International Center of Photography is the world's leading institution dedicated to photography and visual culture. Since our founding, we have presented more than 700 exhibitions and offered thousands of classes. ICP is a center where photographers and artists, students, and scholars can create and interpret the world of the image.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: Skip the Line: International Center of Photography Admission Ticket</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5286,7 +5286,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5026P17</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Summarized description: The International Center of Photography is the world's leading institution dedicated to photography and visual culture. Since our founding, we have presented more than 700 exhibitions and offered thousands of classes. ICP is a center where photographers and artists, students, and scholars can create and interpret the world of the image.</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -5316,7 +5316,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: International Center of Photography Admission Ticket</t>
+          <t>PRODUCTCODE: 111861P9</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -5331,7 +5331,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Museums']</t>
+          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5361,7 +5361,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P9</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5391,7 +5391,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
+          <t>PRODUCTCODE: 130543P12</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -5406,7 +5406,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: The Rockefeller Center is in the midst of the best shopping and dining options in Midtown Manhattan. Admission to the 360 degrees Observatory on one of the tallest, most                  internationally famous buildings in the US.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: Atop Of The Rock Experience The Rockefeller Plaza And Walkabout Midtown NYC</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130543P12</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Summarized description: The Rockefeller Center is in the midst of the best shopping and dining options in Midtown Manhattan. Admission to the 360 degrees Observatory on one of the tallest, most                  internationally famous buildings in the US.</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -5466,7 +5466,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Title: Atop Of The Rock Experience The Rockefeller Plaza And Walkabout Midtown NYC</t>
+          <t>PRODUCTCODE: 186143P41</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -5481,7 +5481,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5511,7 +5511,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P41</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -5541,7 +5541,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
+          <t>PRODUCTCODE: 183204P3</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -5556,7 +5556,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: The Empire State Building was completed in 1931. The most iconic spot on this skyscraper is the 86th floor. The view from here is breathtaking, figuratively (and sometimes literally too)!</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Tickets for Empire State Building: Skip The Line</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5586,7 +5586,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183204P3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building was completed in 1931. The most iconic spot on this skyscraper is the 86th floor. The view from here is breathtaking, figuratively (and sometimes literally too)!</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -5616,7 +5616,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Title: Tickets for Empire State Building: Skip The Line</t>
+          <t>PRODUCTCODE: 52015P2</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -5631,7 +5631,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: NFL Experience Times Square brings fans closer to the game than ever before. Live a champion's journey from the NFL season’s first snap to the confetti shower of the Super Bowl as you’re surrounded by pulse-pounding action of an incredible 4-D experience.</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: NFL Experience Times Square Ticket</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 52015P2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Summarized description: NFL Experience Times Square brings fans closer to the game than ever before. Live a champion's journey from the NFL season’s first snap to the confetti shower of the Super Bowl as you’re surrounded by pulse-pounding action of an incredible 4-D experience.</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -5691,7 +5691,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Title: NFL Experience Times Square Ticket</t>
+          <t>PRODUCTCODE: 336379P51</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -5706,7 +5706,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: One World Trade is in Lower Manhattan and the cruise departs from pier 36 in walking distance from the observation deck. Enjoy 2 of the best Landmarks in NYC. 60 minute cruise with the NYC skyline as a backdrop.</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title: Observation Deck Ticket WTC and Landmark NYC Cruise and Skyline</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P51</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -5751,7 +5751,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Summarized description: One World Trade is in Lower Manhattan and the cruise departs from pier 36 in walking distance from the observation deck. Enjoy 2 of the best Landmarks in NYC. 60 minute cruise with the NYC skyline as a backdrop.</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -5766,7 +5766,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Title: Observation Deck Ticket WTC and Landmark NYC Cruise and Skyline</t>
+          <t>PRODUCTCODE: 177373P18</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -5781,7 +5781,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: The 250-acre Garden is the largest in any city in the United States. Highlights include the award-winning Peggy Rockefeller Rose Garden. More than one million visitors annually enjoy the grounds.</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'City Tours']</t>
+          <t xml:space="preserve">Title: New York Botanical Garden Entrance Ticket </t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 177373P18</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Summarized description: The 250-acre Garden is the largest in any city in the United States. Highlights include the award-winning Peggy Rockefeller Rose Garden. More than one million visitors annually enjoy the grounds.</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -5841,7 +5841,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: New York Botanical Garden Entrance Ticket </t>
+          <t>PRODUCTCODE: 210206P207</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -5856,7 +5856,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: SkyPod is the fastest elevator in the world, reaching speeds of up to 28 mph. SkyPod presents a virtual time-lapse visual experience as it ascends, revealing how the perspective of New York City has changed since the 1500s.</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Title: Skip-the-Line Ticket to One World Observatory with New York Self-Guided Tours</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5886,7 +5886,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P207</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -5901,7 +5901,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Summarized description: SkyPod is the fastest elevator in the world, reaching speeds of up to 28 mph. SkyPod presents a virtual time-lapse visual experience as it ascends, revealing how the perspective of New York City has changed since the 1500s.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -5916,7 +5916,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line Ticket to One World Observatory with New York Self-Guided Tours</t>
+          <t>PRODUCTCODE: 121855P10</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -5931,7 +5931,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: New York City boasts one of the world’s most iconic skylines. We put traveller's favorite spots from which to gaze upon the best views in New York.</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: NYC Skyline Pass: Empire State Building, Top of the Rock, One World Observatory</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121855P10</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Summarized description: New York City boasts one of the world’s most iconic skylines. We put traveller's favorite spots from which to gaze upon the best views in New York.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -5991,7 +5991,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Title: NYC Skyline Pass: Empire State Building, Top of the Rock, One World Observatory</t>
+          <t>PRODUCTCODE: 3242P195</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -6006,7 +6006,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Tony Award-winning Best Musical is tuneful, funny, and constantly surprising. You may never think about our country—who we are and why—the same way again.</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: 1776 on Broadway Ticket</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6036,7 +6036,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P195</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Summarized description: Tony Award-winning Best Musical is tuneful, funny, and constantly surprising. You may never think about our country—who we are and why—the same way again.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -6066,7 +6066,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Title: 1776 on Broadway Ticket</t>
+          <t>PRODUCTCODE: 75303P2</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -6081,7 +6081,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Our Spanish-speaking guides will show you the different neighborhoods that make up this exciting city. Excursion with which you will get a perfect idea of the composition of Manhattan.</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Upper and Lower Manhattan with tickets to One World Observatory</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75303P2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Summarized description: Our Spanish-speaking guides will show you the different neighborhoods that make up this exciting city. Excursion with which you will get a perfect idea of the composition of Manhattan.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -6141,7 +6141,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Title: Upper and Lower Manhattan with tickets to One World Observatory</t>
+          <t>PRODUCTCODE: 5026P16</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -6156,7 +6156,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Large groups, best friends, and daring adventurers come to SPYSCAPE to discover their inner spy. Bring everyone you care about, and collaborate in a riveting spy adventure. It’s a contemporary museum, featuring dramatic spy stories and gadgets.</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: SPYSCAPE Admission Ticket</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5026P16</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B380" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Summarized description: Large groups, best friends, and daring adventurers come to SPYSCAPE to discover their inner spy. Bring everyone you care about, and collaborate in a riveting spy adventure. It’s a contemporary museum, featuring dramatic spy stories and gadgets.</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6216,7 +6216,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Title: SPYSCAPE Admission Ticket</t>
+          <t>PRODUCTCODE: 5277P18</t>
         </is>
       </c>
       <c r="B382" t="inlineStr"/>
@@ -6231,7 +6231,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Pizza is one of the few things that will never let you down. Explore downtown Manhattan, learn about its rich cultural history. Taste four of the best slices the city has to offer on the Pizza Tour Tour.</t>
         </is>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Title: Skip the Line Pizza Tour of New York Ticket</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5277P18</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Summarized description: Pizza is one of the few things that will never let you down. Explore downtown Manhattan, learn about its rich cultural history. Taste four of the best slices the city has to offer on the Pizza Tour Tour.</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6291,7 +6291,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Title: Skip the Line Pizza Tour of New York Ticket</t>
+          <t>PRODUCTCODE: 137061P561</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -6306,7 +6306,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Visit one of the most famous skyscrapers in New York, an observation deck overlooking popular landmarks. Take in the multi-million dollar 360° view from the height of 70 floors above ground.</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
+          <t>Title: Top of the Rock Admission</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6336,7 +6336,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137061P561</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
@@ -6351,7 +6351,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Summarized description: Visit one of the most famous skyscrapers in New York, an observation deck overlooking popular landmarks. Take in the multi-million dollar 360° view from the height of 70 floors above ground.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -6366,7 +6366,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Admission</t>
+          <t>PRODUCTCODE: 251291P44</t>
         </is>
       </c>
       <c r="B392" t="inlineStr"/>
@@ -6381,7 +6381,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: The Top of the Rock Observation Deck offers 360-degree views of New York City. 9,500 square feet of outdoor viewing space, the most of any other NYC observatory.</t>
         </is>
       </c>
       <c r="B393" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: New York Top of the Rock Admission Ticket</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6411,7 +6411,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251291P44</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B395" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Summarized description: The Top of the Rock Observation Deck offers 360-degree views of New York City. 9,500 square feet of outdoor viewing space, the most of any other NYC observatory.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -6441,7 +6441,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Title: New York Top of the Rock Admission Ticket</t>
+          <t>PRODUCTCODE: 15081P241</t>
         </is>
       </c>
       <c r="B397" t="inlineStr"/>
@@ -6456,7 +6456,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: St Patrick's Cathedral is the largest gothic-style Catholic cathedral in the United States. The cathedral opened in 1879 and is considered one of New York City’s finest buildings.</t>
         </is>
       </c>
       <c r="B398" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t xml:space="preserve">Title: St Patrick's Roman Catholic Cathedral on 5th Ave Entry Ticket </t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6486,7 +6486,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P241</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B400" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Summarized description: St Patrick's Cathedral is the largest gothic-style Catholic cathedral in the United States. The cathedral opened in 1879 and is considered one of New York City’s finest buildings.</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -6516,7 +6516,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: St Patrick's Roman Catholic Cathedral on 5th Ave Entry Ticket </t>
+          <t>PRODUCTCODE: 8747P6</t>
         </is>
       </c>
       <c r="B402" t="inlineStr"/>
@@ -6531,7 +6531,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: 4th of July celebration at One World Observatory at the top of One World Trade Center. Tickets to this event include admission to the Observatory from 8 pm - 10 pm, a two hour open bar.</t>
         </is>
       </c>
       <c r="B403" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: One World Observatory 4th of July Celebration Admission</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6561,7 +6561,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
@@ -6576,7 +6576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Summarized description: 4th of July celebration at One World Observatory at the top of One World Trade Center. Tickets to this event include admission to the Observatory from 8 pm - 10 pm, a two hour open bar.</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -6591,7 +6591,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Title: One World Observatory 4th of July Celebration Admission</t>
+          <t>PRODUCTCODE: 5250P59</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -6606,7 +6606,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6636,7 +6636,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5250P59</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -6651,7 +6651,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -6666,7 +6666,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
+          <t>PRODUCTCODE: 90219P116</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -6681,7 +6681,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Be transported by Skypod to the 102nd floor in 47 seconds, seeing the evolution of the Manhattan skyline on the way. Step out onto the see-through Sky Portal for heart-racing views.</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: NYC One World Observatory: Skip-the-Queue Ticket</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6711,7 +6711,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P116</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Summarized description: Be transported by Skypod to the 102nd floor in 47 seconds, seeing the evolution of the Manhattan skyline on the way. Step out onto the see-through Sky Portal for heart-racing views.</t>
+          <t>Category: ['Modern Attractions', 'Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -6741,7 +6741,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory: Skip-the-Queue Ticket</t>
+          <t>PRODUCTCODE: 121855P6</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -6756,7 +6756,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: The Empire State Building is one of the most recognizable buildings in the world. Make your way to the Observatory to catch amazing 360-degree views of New York City.</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Aerial Tours']</t>
+          <t>Title: Empire State Building - the 86th Observatory Deck Ticket</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6786,7 +6786,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121855P6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building is one of the most recognizable buildings in the world. Make your way to the Observatory to catch amazing 360-degree views of New York City.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -6816,7 +6816,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Title: Empire State Building - the 86th Observatory Deck Ticket</t>
+          <t>PRODUCTCODE: 198060P8</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -6831,7 +6831,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: With the exhibition and two viewing platforms, the Empire State Building is the best way to see New York's most famous skyscraper. Looking up at the skyscrapers of New York is quite an experience, but that's nothing compared to the view from the top.</t>
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t xml:space="preserve">Title: United States New York Empire State Building ticket </t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198060P8</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B425" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Summarized description: With the exhibition and two viewing platforms, the Empire State Building is the best way to see New York's most famous skyscraper. Looking up at the skyscrapers of New York is quite an experience, but that's nothing compared to the view from the top.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -6891,7 +6891,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: United States New York Empire State Building ticket </t>
+          <t>PRODUCTCODE: 39287P2</t>
         </is>
       </c>
       <c r="B427" t="inlineStr"/>
@@ -6906,7 +6906,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Midtown Manhattan has the highest concentration of skyscrapers in the world and forms the heart of the famous NYC Skyline. For first time visitors, this tour will help you decipher Manhattan's famous grid and make it easier for you to find your way around.</t>
         </is>
       </c>
       <c r="B428" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Exciting Midtown Manhattan Private Walking Tour</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 39287P2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B430" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Summarized description: Midtown Manhattan has the highest concentration of skyscrapers in the world and forms the heart of the famous NYC Skyline. For first time visitors, this tour will help you decipher Manhattan's famous grid and make it easier for you to find your way around.</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -6966,7 +6966,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Title: Exciting Midtown Manhattan Private Walking Tour</t>
+          <t>PRODUCTCODE: 128905P307</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -6981,7 +6981,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: New York Edge Sky Deck Admission Tickets</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7011,7 +7011,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P307</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -7041,7 +7041,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Title: New York Edge Sky Deck Admission Tickets</t>
+          <t>PRODUCTCODE: 217534P10</t>
         </is>
       </c>
       <c r="B437" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Take in a 360-degree panorama of New York from 850 feet (260m) in the air at the Top of the Rock. Stroll between 2 floors with expansive indoor and outdoor viewing areas. Top off your visit by taking in breathtaking views of Central Park, Empire State Building, lower Manhattan.</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: Skip the Line: Rockefeller Center Observation Deck Admission Ticket</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7086,7 +7086,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 217534P10</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B440" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Summarized description: Take in a 360-degree panorama of New York from 850 feet (260m) in the air at the Top of the Rock. Stroll between 2 floors with expansive indoor and outdoor viewing areas. Top off your visit by taking in breathtaking views of Central Park, Empire State Building, lower Manhattan.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -7116,7 +7116,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Rockefeller Center Observation Deck Admission Ticket</t>
+          <t>PRODUCTCODE: 8747CHAMP</t>
         </is>
       </c>
       <c r="B442" t="inlineStr"/>
@@ -7131,7 +7131,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Celebrate at One World Observatory with a glass of sparkling champagne. Your ticket includes entry to the One World observatory and a drink at ONE Mix. One Mix is located on level 101 of One World Observatory.</t>
         </is>
       </c>
       <c r="B443" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Champagne Celebration with One World Observatory Admission</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747CHAMP</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B445" t="inlineStr"/>
@@ -7176,7 +7176,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Summarized description: Celebrate at One World Observatory with a glass of sparkling champagne. Your ticket includes entry to the One World observatory and a drink at ONE Mix. One Mix is located on level 101 of One World Observatory.</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -7191,7 +7191,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Title: Champagne Celebration with One World Observatory Admission</t>
+          <t>PRODUCTCODE: 116848P45</t>
         </is>
       </c>
       <c r="B447" t="inlineStr"/>
@@ -7206,7 +7206,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Empire State Building is more than a spectacular view. It’s an immersive experience inside a world famous landmark. In addition to the Observation Decks, your visit includes the newly restored lobby.</t>
         </is>
       </c>
       <c r="B448" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Wine and Beverage Tastings']</t>
+          <t>Title: Skip the Line: Empire State Building Ticket</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P45</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -7251,7 +7251,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building is more than a spectacular view. It’s an immersive experience inside a world famous landmark. In addition to the Observation Decks, your visit includes the newly restored lobby.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -7266,7 +7266,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Empire State Building Ticket</t>
+          <t>PRODUCTCODE: 324821P63</t>
         </is>
       </c>
       <c r="B452" t="inlineStr"/>
@@ -7281,7 +7281,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description:  Skip all the lines to the One World Observatory, located on floors 100-102 of the tallest building in the US. Enjoy live commentary and unparalleled views of the Empire State Building, the Statue of Liberty, the Brooklyn Bridge and more.</t>
         </is>
       </c>
       <c r="B453" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Skip-the-line One World Observatory Tour with Transfers</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P63</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B455" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Summarized description:  Skip all the lines to the One World Observatory, located on floors 100-102 of the tallest building in the US. Enjoy live commentary and unparalleled views of the Empire State Building, the Statue of Liberty, the Brooklyn Bridge and more.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -7341,7 +7341,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line One World Observatory Tour with Transfers</t>
+          <t>PRODUCTCODE: 198060P35</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -7356,7 +7356,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: One world trade center proudly stands as one of the tallest buildings in the world. Now you can go up into the sky and enjoy spectacular views of New York City and beyond.</t>
         </is>
       </c>
       <c r="B458" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: United States New York One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7386,7 +7386,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198060P35</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Summarized description: One world trade center proudly stands as one of the tallest buildings in the world. Now you can go up into the sky and enjoy spectacular views of New York City and beyond.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -7416,7 +7416,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Title: United States New York One World Observatory Ticket</t>
+          <t>PRODUCTCODE: 128905P215</t>
         </is>
       </c>
       <c r="B462" t="inlineStr"/>
@@ -7431,7 +7431,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world, reaching 1,776 feet. The observatory offers unprecedented panoramic views of New York City and beyond.</t>
         </is>
       </c>
       <c r="B463" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: One World Observatory</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7461,7 +7461,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P215</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B465" t="inlineStr"/>
@@ -7476,7 +7476,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world, reaching 1,776 feet. The observatory offers unprecedented panoramic views of New York City and beyond.</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -7491,7 +7491,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Title: One World Observatory</t>
+          <t>PRODUCTCODE: 122220P2</t>
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
@@ -7506,7 +7506,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Skip-the-Line Admission to One World Observatory is available on a first come, first served basis.</t>
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Title: Skip the Line: One World Observatory Ticket (New York City)</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7536,7 +7536,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -7551,7 +7551,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Skip-the-Line Admission to One World Observatory is available on a first come, first served basis.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -7566,7 +7566,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: One World Observatory Ticket (New York City)</t>
+          <t>PRODUCTCODE: 3242P211</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -7581,7 +7581,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: A distinguished cast of leading Mozarteans comes together to bring the moving drama and dazzling arias to life. Tenor Michael Spyres in the title role of the ancient Cretan king. Mezzo-soprano Kate Lindsey as the noble prince Idamante and soprano Ying Fang as his conflicted beloved, Ilia. Soprano Federica Lombardi is the jealous Elettra, who loses her senses in a mad scene of virtuosic rage.</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t xml:space="preserve">Title: The Metropolitan Opera Idomeneo Ticket </t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P211</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -7626,7 +7626,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Summarized description: A distinguished cast of leading Mozarteans comes together to bring the moving drama and dazzling arias to life. Tenor Michael Spyres in the title role of the ancient Cretan king. Mezzo-soprano Kate Lindsey as the noble prince Idamante and soprano Ying Fang as his conflicted beloved, Ilia. Soprano Federica Lombardi is the jealous Elettra, who loses her senses in a mad scene of virtuosic rage.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -7641,7 +7641,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Metropolitan Opera Idomeneo Ticket </t>
+          <t>PRODUCTCODE: 3242NYCBALLET</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -7656,7 +7656,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: New York City Ballet is one of the world's foremost dance companies. The Company was established in 1948 by George Balanchine and Lincoln Kirstein. NYCB performs at Lincoln Center’s David H. Koch Theater.</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: New York City Ballet Ticket</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7686,7 +7686,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242NYCBALLET</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B480" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Summarized description: New York City Ballet is one of the world's foremost dance companies. The Company was established in 1948 by George Balanchine and Lincoln Kirstein. NYCB performs at Lincoln Center’s David H. Koch Theater.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -7716,7 +7716,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Title: New York City Ballet Ticket</t>
+          <t>PRODUCTCODE: 226727P44</t>
         </is>
       </c>
       <c r="B482" t="inlineStr"/>
@@ -7731,7 +7731,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world. Enjoy breathtaking views of NYC from One World Observatory. Explore the fascinating history and iconic landmarks of the Lower Manhattan with the private audio tour available on Wegotrip App.</t>
         </is>
       </c>
       <c r="B483" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: One World Observatory: Skip-The-Line + Sightseeing Audio Tour on Mobile App</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7761,7 +7761,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P44</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B485" t="inlineStr"/>
@@ -7776,7 +7776,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world. Enjoy breathtaking views of NYC from One World Observatory. Explore the fascinating history and iconic landmarks of the Lower Manhattan with the private audio tour available on Wegotrip App.</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -7791,7 +7791,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Title: One World Observatory: Skip-The-Line + Sightseeing Audio Tour on Mobile App</t>
+          <t>PRODUCTCODE: 377810P21</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -7806,7 +7806,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Soar Over NYC to New (York) heights on a spectacular uplifting ride. Explore NYC’s vibrant pop-cultural evolution to see its indelible impact on the world. Journey through seven galleries that spotlight historic artifacts, star-studded memorabilia, and engaging, fun, and educational displays.</t>
         </is>
       </c>
       <c r="B488" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: RiseNY Times Square New Year Eve Admission Ticket</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7836,7 +7836,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 377810P21</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B490" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Summarized description: Soar Over NYC to New (York) heights on a spectacular uplifting ride. Explore NYC’s vibrant pop-cultural evolution to see its indelible impact on the world. Journey through seven galleries that spotlight historic artifacts, star-studded memorabilia, and engaging, fun, and educational displays.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -7866,7 +7866,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Title: RiseNY Times Square New Year Eve Admission Ticket</t>
+          <t>PRODUCTCODE: 255730P29</t>
         </is>
       </c>
       <c r="B492" t="inlineStr"/>
@@ -7881,7 +7881,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
         </is>
       </c>
       <c r="B493" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7911,7 +7911,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P29</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B495" t="inlineStr"/>
@@ -7926,7 +7926,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -7941,7 +7941,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
+          <t>PRODUCTCODE: 156153P2</t>
         </is>
       </c>
       <c r="B497" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: 360° observation deck at the peak of the Rockfeller Center has been standing since 1939. With an open-air viewing deck on the 70th floor, you will be overlooking the landmarks that make New York.</t>
         </is>
       </c>
       <c r="B498" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Title: Top of the Rock Admission &amp; Dinner Prime Time Ticket</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -7986,7 +7986,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 156153P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B500" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Summarized description: 360° observation deck at the peak of the Rockfeller Center has been standing since 1939. With an open-air viewing deck on the 70th floor, you will be overlooking the landmarks that make New York.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -8016,7 +8016,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Admission &amp; Dinner Prime Time Ticket</t>
+          <t>PRODUCTCODE: 255071P12</t>
         </is>
       </c>
       <c r="B502" t="inlineStr"/>
@@ -8031,7 +8031,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Head up to the Top on the Sky Shuttle. Explore 2 floors with expansive indoor and outdoor viewing areas. Top off your visit with breathtaking views of Central Park, Empire State Building, downtown Manhattan.</t>
         </is>
       </c>
       <c r="B503" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: New York Exclusive - Skip the Line: One World Observatory Visit Ticket</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8061,7 +8061,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P12</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B505" t="inlineStr"/>
@@ -8076,7 +8076,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the Top on the Sky Shuttle. Explore 2 floors with expansive indoor and outdoor viewing areas. Top off your visit with breathtaking views of Central Park, Empire State Building, downtown Manhattan.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -8091,7 +8091,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Title: New York Exclusive - Skip the Line: One World Observatory Visit Ticket</t>
+          <t>PRODUCTCODE: 377810P6</t>
         </is>
       </c>
       <c r="B507" t="inlineStr"/>
@@ -8106,7 +8106,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Elsie Rooftop is the perfect all-season destination, Situated 25 stories up near Bryant Park. The bespoke cocktails complement the upscale light fare menu that changes seasonally.</t>
         </is>
       </c>
       <c r="B508" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: 4th Of July Rooftop Party Pass</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 377810P6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B510" t="inlineStr"/>
@@ -8151,7 +8151,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Summarized description: Elsie Rooftop is the perfect all-season destination, Situated 25 stories up near Bryant Park. The bespoke cocktails complement the upscale light fare menu that changes seasonally.</t>
+          <t>Category: ['Dining Experiences']</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -8166,7 +8166,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Title: 4th Of July Rooftop Party Pass</t>
+          <t>PRODUCTCODE: 378258P189</t>
         </is>
       </c>
       <c r="B512" t="inlineStr"/>
@@ -8181,7 +8181,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B513" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences']</t>
+          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 378258P189</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B515" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -8241,7 +8241,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
+          <t>PRODUCTCODE: 3242P210</t>
         </is>
       </c>
       <c r="B517" t="inlineStr"/>
@@ -8256,7 +8256,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Baritone Michael Volle sings his first Verdi role at the Met as the caddish knight Falstaff. Reuniting after their acclaimed turns in the production’s 2019 run.</t>
         </is>
       </c>
       <c r="B518" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t xml:space="preserve">Title: The Metropolitan Opera Falstaff Ticket </t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P210</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Summarized description: Baritone Michael Volle sings his first Verdi role at the Met as the caddish knight Falstaff. Reuniting after their acclaimed turns in the production’s 2019 run.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8316,7 +8316,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Metropolitan Opera Falstaff Ticket </t>
+          <t>PRODUCTCODE: 275645P2</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
@@ -8331,7 +8331,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275645P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B525" t="inlineStr"/>
@@ -8376,7 +8376,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -8391,7 +8391,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
+          <t>PRODUCTCODE: 326790P22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr"/>
@@ -8406,7 +8406,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Discover the sites that make midtown iconic. Take a tour of Grand Central, Madison Square Garden, and the Hudson River. Also visit the Empire State Building, St Patrick's Cathedral, and Times Square.</t>
         </is>
       </c>
       <c r="B528" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: 4-Hour Private Iconic Manhattan Tour - Hudson Yards, Rock Center, Grand Central</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 326790P22</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B530" t="inlineStr"/>
@@ -8451,7 +8451,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the sites that make midtown iconic. Take a tour of Grand Central, Madison Square Garden, and the Hudson River. Also visit the Empire State Building, St Patrick's Cathedral, and Times Square.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -8466,7 +8466,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Title: 4-Hour Private Iconic Manhattan Tour - Hudson Yards, Rock Center, Grand Central</t>
+          <t>PRODUCTCODE: 340348P1</t>
         </is>
       </c>
       <c r="B532" t="inlineStr"/>
@@ -8481,7 +8481,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Spring Mixer in Blue Midtown. Tickets include 2 cocktails, appetizers, and 4 curated introductions. Tickets are $35. For more information, visit www.bluemidtown.com.</t>
         </is>
       </c>
       <c r="B533" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Spring Mixer Ticket in Blue Midtown</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8511,7 +8511,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340348P1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B535" t="inlineStr"/>
@@ -8526,7 +8526,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Summarized description: Spring Mixer in Blue Midtown. Tickets include 2 cocktails, appetizers, and 4 curated introductions. Tickets are $35. For more information, visit www.bluemidtown.com.</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -8541,7 +8541,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Title: Spring Mixer Ticket in Blue Midtown</t>
+          <t>PRODUCTCODE: 379366P34</t>
         </is>
       </c>
       <c r="B537" t="inlineStr"/>
@@ -8556,7 +8556,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Seating categories are based on location and proximity to the field. Premium &amp; Intermediate category seats generally sit along the 3rd baseline or behind home base. Whereas seats in the Basic seating category are generally higher up and in the outfield.</t>
         </is>
       </c>
       <c r="B538" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Title: New York Yankees Baseball Game Ticket at Yankee Stadium</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8586,7 +8586,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379366P34</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B540" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Summarized description: Seating categories are based on location and proximity to the field. Premium &amp; Intermediate category seats generally sit along the 3rd baseline or behind home base. Whereas seats in the Basic seating category are generally higher up and in the outfield.</t>
+          <t>Category: ['Team Sports']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -8616,7 +8616,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Title: New York Yankees Baseball Game Ticket at Yankee Stadium</t>
+          <t>PRODUCTCODE: 177373P17</t>
         </is>
       </c>
       <c r="B542" t="inlineStr"/>
@@ -8631,7 +8631,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
         </is>
       </c>
       <c r="B543" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Team Sports']</t>
+          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 177373P17</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B545" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -8691,7 +8691,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
+          <t>PRODUCTCODE: 217534P2</t>
         </is>
       </c>
       <c r="B547" t="inlineStr"/>
@@ -8706,7 +8706,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Met presents over 5,000 years of art from around the world for everyone to experience and enjoy. The Museum lives in three iconic sites in New York City. Millions of people also take part in The Met experience online.</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t xml:space="preserve">Title: Metropolitan Museum of Art Admission Ticket </t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 217534P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B550" t="inlineStr"/>
@@ -8751,7 +8751,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Summarized description: The Met presents over 5,000 years of art from around the world for everyone to experience and enjoy. The Museum lives in three iconic sites in New York City. Millions of people also take part in The Met experience online.</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -8766,7 +8766,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Metropolitan Museum of Art Admission Ticket </t>
+          <t>PRODUCTCODE: 15081P507</t>
         </is>
       </c>
       <c r="B552" t="inlineStr"/>
@@ -8781,7 +8781,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Wollman Rink is located in the heart of Central Park. The rink is meticulously maintained, ensuring a perfect surface for every twirl, jump, &amp; spin.</t>
         </is>
       </c>
       <c r="B553" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Title: New York Central Park Ice Skating Ticket with Cruise Experience</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P507</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B555" t="inlineStr"/>
@@ -8826,7 +8826,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Summarized description: Wollman Rink is located in the heart of Central Park. The rink is meticulously maintained, ensuring a perfect surface for every twirl, jump, &amp; spin.</t>
+          <t>Category: ['Winter Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -8841,7 +8841,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Title: New York Central Park Ice Skating Ticket with Cruise Experience</t>
+          <t>PRODUCTCODE: 3242P206</t>
         </is>
       </c>
       <c r="B557" t="inlineStr"/>
@@ -8856,7 +8856,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Poulenc’s devastating tragedy, Dialogues des Carmelites returns, with soprano Ailyn Pe´rez as the young woman at the center of the harrowing, quasi-historical tale of an order of Carmelite nuns martyred in Paris during the French Revolution. Maestro Bertrand de Billy conducts John Dexter's striking and timeless staging. The remarkable cast also features sopranos Sabine Devieilhe, Eva-Maria Westbroek and Jamie Barton.</t>
         </is>
       </c>
       <c r="B558" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Winter Sports']</t>
+          <t xml:space="preserve">Title: The Metropolitan Opera Dialogues des Carmelites Ticket </t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P206</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B560" t="inlineStr"/>
@@ -8901,7 +8901,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Summarized description: Poulenc’s devastating tragedy, Dialogues des Carmelites returns, with soprano Ailyn Pe´rez as the young woman at the center of the harrowing, quasi-historical tale of an order of Carmelite nuns martyred in Paris during the French Revolution. Maestro Bertrand de Billy conducts John Dexter's striking and timeless staging. The remarkable cast also features sopranos Sabine Devieilhe, Eva-Maria Westbroek and Jamie Barton.</t>
+          <t>Category: ['Performing Arts', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -8916,7 +8916,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Metropolitan Opera Dialogues des Carmelites Ticket </t>
+          <t>PRODUCTCODE: 116848P46</t>
         </is>
       </c>
       <c r="B562" t="inlineStr"/>
@@ -8931,7 +8931,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
         </is>
       </c>
       <c r="B563" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours', 'Performing Arts']</t>
+          <t>Title: Skip the Line: One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -8961,7 +8961,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P46</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B565" t="inlineStr"/>
@@ -8976,7 +8976,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -8991,7 +8991,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: One World Observatory Ticket</t>
+          <t>PRODUCTCODE: 5539P13</t>
         </is>
       </c>
       <c r="B567" t="inlineStr"/>
@@ -9006,7 +9006,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Watch the 2018 New York Yankees vs Toronto Blue Jays on Saturday August 18, 2018 - 1:05. Several former Yankees legends will sign autographs, pose for photos and tell stories of their playing days.</t>
         </is>
       </c>
       <c r="B568" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Yankees Legends Suite Game Ticket</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5539P13</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B570" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the 2018 New York Yankees vs Toronto Blue Jays on Saturday August 18, 2018 - 1:05. Several former Yankees legends will sign autographs, pose for photos and tell stories of their playing days.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -9066,7 +9066,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Title: Yankees Legends Suite Game Ticket</t>
+          <t>PRODUCTCODE: 122220P6</t>
         </is>
       </c>
       <c r="B572" t="inlineStr"/>
@@ -9081,7 +9081,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Intrepid Sea, Air, and Space Museum is located at Pier 86, West 46th St and 12th Avenue in New York City. Enjoy Priority Box Office Access by using the entrance marked Will Call/Advanced Sales. See the Intrepid Air Craft Carrier, the Space Shuttle Pavilion, the Growler Submarine, plus watch an 8-minute film entitled 'the Story of Int repid'</t>
         </is>
       </c>
       <c r="B573" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: Intrepid Sea, Air and Space Museum (Promotion Price) Ticket</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9111,7 +9111,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B575" t="inlineStr"/>
@@ -9126,7 +9126,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Summarized description: Intrepid Sea, Air, and Space Museum is located at Pier 86, West 46th St and 12th Avenue in New York City. Enjoy Priority Box Office Access by using the entrance marked Will Call/Advanced Sales. See the Intrepid Air Craft Carrier, the Space Shuttle Pavilion, the Growler Submarine, plus watch an 8-minute film entitled 'the Story of Int repid'</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -9141,7 +9141,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Title: Intrepid Sea, Air and Space Museum (Promotion Price) Ticket</t>
+          <t>PRODUCTCODE: 130543P1</t>
         </is>
       </c>
       <c r="B577" t="inlineStr"/>
@@ -9156,7 +9156,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Learn about the construction of One World Observatory, the 1,776-foot-tall skyscraper built on the location of the original New York City World Trade Center. Visit the New York Stock Exchange, St Paul's Chapel, and The New York World's Fair.</t>
         </is>
       </c>
       <c r="B578" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Title: The One World Observatory, 911 Memorial Tour, Oculus &amp; A Downtown Walking Tour.</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9186,7 +9186,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130543P1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B580" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the construction of One World Observatory, the 1,776-foot-tall skyscraper built on the location of the original New York City World Trade Center. Visit the New York Stock Exchange, St Paul's Chapel, and The New York World's Fair.</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9216,7 +9216,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Title: The One World Observatory, 911 Memorial Tour, Oculus &amp; A Downtown Walking Tour.</t>
+          <t>PRODUCTCODE: 34556P6</t>
         </is>
       </c>
       <c r="B582" t="inlineStr"/>
@@ -9231,7 +9231,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: One World Trade is the tallest building in the Western Hemisphere. Enjoy a luxury cruise around Manhattan and then walk across the street and climb to the top of the building.</t>
         </is>
       </c>
       <c r="B583" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: Luxury Boat Tour and One World Observatory Admission</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34556P6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B585" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Summarized description: One World Trade is the tallest building in the Western Hemisphere. Enjoy a luxury cruise around Manhattan and then walk across the street and climb to the top of the building.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9291,7 +9291,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Title: Luxury Boat Tour and One World Observatory Admission</t>
+          <t>PRODUCTCODE: 90219P179</t>
         </is>
       </c>
       <c r="B587" t="inlineStr"/>
@@ -9306,7 +9306,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
         </is>
       </c>
       <c r="B588" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9336,7 +9336,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P179</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B590" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
+          <t>Category: ['Modern Attractions', 'Museums', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9366,7 +9366,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
+          <t>PRODUCTCODE: 177373P16</t>
         </is>
       </c>
       <c r="B592" t="inlineStr"/>
@@ -9381,7 +9381,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Met presents over 5,000 years of art from around the world for everyone to experience and enjoy. The Museum lives in three iconic sites in New York City. Millions of people also take part in The Met experience online.</t>
         </is>
       </c>
       <c r="B593" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Museums']</t>
+          <t xml:space="preserve">Title: Metropolitan Museum of Art Entrance Ticket </t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9411,7 +9411,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 177373P16</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B595" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Summarized description: The Met presents over 5,000 years of art from around the world for everyone to experience and enjoy. The Museum lives in three iconic sites in New York City. Millions of people also take part in The Met experience online.</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -9441,7 +9441,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Metropolitan Museum of Art Entrance Ticket </t>
+          <t>PRODUCTCODE: 90219P280</t>
         </is>
       </c>
       <c r="B597" t="inlineStr"/>
@@ -9456,7 +9456,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Visit the 86th floor Observation Deck of the iconic Empire State Building. Look out on New York City from 1,050 feet above the bustling streets below.</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Title: New York City Amazing Empire State Building General &amp; Skip-the-Line Tickets</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9486,7 +9486,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P280</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -9501,7 +9501,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the 86th floor Observation Deck of the iconic Empire State Building. Look out on New York City from 1,050 feet above the bustling streets below.</t>
+          <t>Category: ['Modern Attractions', 'Museums', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -9516,7 +9516,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Title: New York City Amazing Empire State Building General &amp; Skip-the-Line Tickets</t>
+          <t>PRODUCTCODE: 117627P8</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -9531,7 +9531,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Tribeca Comedy Lounge is located in downtown Manhattan. 90 minutes of non stop laughter with some of the brightest and best stand up comedians in the country.</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions', 'Aerial Tours']</t>
+          <t>Title: Tribeca Comedy Club Ticket</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9561,7 +9561,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117627P8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -9576,7 +9576,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Summarized description: Tribeca Comedy Lounge is located in downtown Manhattan. 90 minutes of non stop laughter with some of the brightest and best stand up comedians in the country.</t>
+          <t>Category: ['Entertainment']</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -9591,7 +9591,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Title: Tribeca Comedy Club Ticket</t>
+          <t>PRODUCTCODE: 224802P2</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -9606,7 +9606,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Get into an Empire State of Mind, with entrance to the building's second-floor galleries included as part of your ticket. Learn more about the face of the Big Apple, from its inception and construction to its intertwined history with Hollywood.</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Title: Tickets for Empire State Building: General Admission</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9636,7 +9636,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 224802P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B610" t="inlineStr"/>
@@ -9651,7 +9651,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Summarized description: Get into an Empire State of Mind, with entrance to the building's second-floor galleries included as part of your ticket. Learn more about the face of the Big Apple, from its inception and construction to its intertwined history with Hollywood.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Title: Tickets for Empire State Building: General Admission</t>
+          <t>PRODUCTCODE: 3242P219</t>
         </is>
       </c>
       <c r="B612" t="inlineStr"/>
@@ -9681,7 +9681,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Bartlett Sher’s Art Deco–inspired production of Verdi's ever-popular masterpiece, Rigoletto returns for its first revival. Two artists make noteworthy Met debuts: tenor Benjamin Bernheim as the promiscuous Duke of Mantua, and Maestro Speranza Scappucci on the podium.</t>
         </is>
       </c>
       <c r="B613" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: The Metropolitan Opera Rigoletto Ticket</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9711,7 +9711,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P219</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B615" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Summarized description: Bartlett Sher’s Art Deco–inspired production of Verdi's ever-popular masterpiece, Rigoletto returns for its first revival. Two artists make noteworthy Met debuts: tenor Benjamin Bernheim as the promiscuous Duke of Mantua, and Maestro Speranza Scappucci on the podium.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -9741,7 +9741,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Title: The Metropolitan Opera Rigoletto Ticket</t>
+          <t>PRODUCTCODE: 3242MAGICFLUTE</t>
         </is>
       </c>
       <c r="B617" t="inlineStr"/>
@@ -9756,7 +9756,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Metropolitan Opera is possibly the most glamorous excursion available to visitors of New York City. Enjoy a viewing of The Magic Flute this holiday season!</t>
         </is>
       </c>
       <c r="B618" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: The Magic Flute at the Metropolitan Opera House Ticket</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9786,7 +9786,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242MAGICFLUTE</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B620" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Summarized description: The Metropolitan Opera is possibly the most glamorous excursion available to visitors of New York City. Enjoy a viewing of The Magic Flute this holiday season!</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -9816,7 +9816,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Title: The Magic Flute at the Metropolitan Opera House Ticket</t>
+          <t>PRODUCTCODE: 116848P17</t>
         </is>
       </c>
       <c r="B622" t="inlineStr"/>
@@ -9831,7 +9831,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
         </is>
       </c>
       <c r="B623" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9861,7 +9861,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P17</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -9876,7 +9876,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -9891,7 +9891,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
+          <t>PRODUCTCODE: 217534P3</t>
         </is>
       </c>
       <c r="B627" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The 250-acre Garden is the largest in any city in the United States. Highlights include the award-winning Peggy Rockefeller Rose Garden. More than one million visitors annually enjoy the grounds.</t>
         </is>
       </c>
       <c r="B628" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: New York Botanical Garden Admission Ticket</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9936,7 +9936,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 217534P3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B630" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Summarized description: The 250-acre Garden is the largest in any city in the United States. Highlights include the award-winning Peggy Rockefeller Rose Garden. More than one million visitors annually enjoy the grounds.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -9966,7 +9966,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Title: New York Botanical Garden Admission Ticket</t>
+          <t>PRODUCTCODE: 3242P217</t>
         </is>
       </c>
       <c r="B632" t="inlineStr"/>
@@ -9981,7 +9981,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Soprano Sonya Yoncheva adds another major heroine to her impressive list of Met roles. The extraordinary cast also features tenor Michael Spyres as Norma’s unfaithful Roman lover.</t>
         </is>
       </c>
       <c r="B633" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: The Metropolitan Opera Norma Ticket</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10011,7 +10011,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P217</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B635" t="inlineStr"/>
@@ -10026,7 +10026,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Summarized description: Soprano Sonya Yoncheva adds another major heroine to her impressive list of Met roles. The extraordinary cast also features tenor Michael Spyres as Norma’s unfaithful Roman lover.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Title: The Metropolitan Opera Norma Ticket</t>
+          <t>PRODUCTCODE: 186143P119</t>
         </is>
       </c>
       <c r="B637" t="inlineStr"/>
@@ -10056,7 +10056,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Empire State Building is a National Historic Landmark. The 86th floor offers panoramic views of New York City and six states. The 102nd floor offers views of the Empire State from 102 stories up.</t>
         </is>
       </c>
       <c r="B638" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: Skip the Line: Premium Empire State Building (Multiple Ticket Options)</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10086,7 +10086,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P119</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B640" t="inlineStr"/>
@@ -10101,7 +10101,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building is a National Historic Landmark. The 86th floor offers panoramic views of New York City and six states. The 102nd floor offers views of the Empire State from 102 stories up.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B641" t="inlineStr"/>
@@ -10116,7 +10116,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Premium Empire State Building (Multiple Ticket Options)</t>
+          <t>PRODUCTCODE: 128905P252</t>
         </is>
       </c>
       <c r="B642" t="inlineStr"/>
@@ -10131,7 +10131,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
         </is>
       </c>
       <c r="B643" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10161,7 +10161,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P252</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B645" t="inlineStr"/>
@@ -10176,7 +10176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -10191,7 +10191,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
+          <t>PRODUCTCODE: 368349P530</t>
         </is>
       </c>
       <c r="B647" t="inlineStr"/>
@@ -10206,7 +10206,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
         </is>
       </c>
       <c r="B648" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10236,7 +10236,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P530</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B650" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -10266,7 +10266,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
+          <t>PRODUCTCODE: 3242P232</t>
         </is>
       </c>
       <c r="B652" t="inlineStr"/>
@@ -10281,7 +10281,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Two-time Tony Award winner Laurie Metcalf stars in this first-of-its-kind Broadway experience. Emmy® Award winner Tatiana Maslany (Orphan Black) and Emmy nominee Paul Sparks (House of Cards) also star.</t>
         </is>
       </c>
       <c r="B653" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t xml:space="preserve">Title: Grey House On Broadway Ticket </t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10311,7 +10311,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P232</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B655" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Summarized description: Two-time Tony Award winner Laurie Metcalf stars in this first-of-its-kind Broadway experience. Emmy® Award winner Tatiana Maslany (Orphan Black) and Emmy nominee Paul Sparks (House of Cards) also star.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10341,7 +10341,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Grey House On Broadway Ticket </t>
+          <t>PRODUCTCODE: 107859P732</t>
         </is>
       </c>
       <c r="B657" t="inlineStr"/>
@@ -10356,7 +10356,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: OWTC is a spectacular glass and steel boulder that stands 1.776 feet tall. Designed by David Childs, the chief architect of the Burj Khalifa in Dubai.</t>
         </is>
       </c>
       <c r="B658" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: United States New York One World Observatory: Skip The Ticket Line</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10386,7 +10386,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P732</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B660" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Summarized description: OWTC is a spectacular glass and steel boulder that stands 1.776 feet tall. Designed by David Childs, the chief architect of the Burj Khalifa in Dubai.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -10416,7 +10416,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Title: United States New York One World Observatory: Skip The Ticket Line</t>
+          <t>PRODUCTCODE: 368349P498</t>
         </is>
       </c>
       <c r="B662" t="inlineStr"/>
@@ -10431,7 +10431,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
         </is>
       </c>
       <c r="B663" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10461,7 +10461,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P498</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B665" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -10491,7 +10491,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
+          <t>PRODUCTCODE: 3242P216</t>
         </is>
       </c>
       <c r="B667" t="inlineStr"/>
@@ -10506,7 +10506,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Sondra Radvanovsky opens the new season as the mythic sorceress who will stop at nothing in her quest for vengeance. Maestro Carlo Rizzi conducts Medea, in addition to Don Carlo and Tosca. The Met premiere of Cherubini’s rarely performed masterpiece marks the fourth new production with director David McVicar.</t>
         </is>
       </c>
       <c r="B668" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: The Metropolitan Opera Medea Ticket</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10536,7 +10536,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3242P216</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B670" t="inlineStr"/>
@@ -10551,7 +10551,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Summarized description: Sondra Radvanovsky opens the new season as the mythic sorceress who will stop at nothing in her quest for vengeance. Maestro Carlo Rizzi conducts Medea, in addition to Don Carlo and Tosca. The Met premiere of Cherubini’s rarely performed masterpiece marks the fourth new production with director David McVicar.</t>
+          <t>Category: ['Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -10566,7 +10566,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Title: The Metropolitan Opera Medea Ticket</t>
+          <t>PRODUCTCODE: 121855P9</t>
         </is>
       </c>
       <c r="B672" t="inlineStr"/>
@@ -10581,7 +10581,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The One World Observatory is the latest and greatest Big Apple attraction. Located at the top three floors of the One World Trade Center, the observatory boasts jaw-dropping views of Manhattan.</t>
         </is>
       </c>
       <c r="B673" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Performing Arts']</t>
+          <t>Title: NYC One World Observatory Day-Time Ticket</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10611,7 +10611,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121855P9</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B675" t="inlineStr"/>
@@ -10626,7 +10626,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Observatory is the latest and greatest Big Apple attraction. Located at the top three floors of the One World Trade Center, the observatory boasts jaw-dropping views of Manhattan.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B676" t="inlineStr"/>
@@ -10641,7 +10641,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory Day-Time Ticket</t>
+          <t>PRODUCTCODE: 217534P1</t>
         </is>
       </c>
       <c r="B677" t="inlineStr"/>
@@ -10656,7 +10656,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
         </is>
       </c>
       <c r="B678" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t xml:space="preserve">Title: Empire State Building Admission Ticket </t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10686,7 +10686,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 217534P1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B680" t="inlineStr"/>
@@ -10701,7 +10701,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B681" t="inlineStr"/>
@@ -10716,7 +10716,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Empire State Building Admission Ticket </t>
+          <t>PRODUCTCODE: 256691P4</t>
         </is>
       </c>
       <c r="B682" t="inlineStr"/>
@@ -10731,7 +10731,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Take in 360-degree panoramic views of the Big Apple from Top of the Rock’s iconic observation deck. This flexible date ticket allows you to plan your visit around the weather.</t>
         </is>
       </c>
       <c r="B683" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: NYC: Top of the Rock Observation Deck Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10761,7 +10761,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 256691P4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B685" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Summarized description: Take in 360-degree panoramic views of the Big Apple from Top of the Rock’s iconic observation deck. This flexible date ticket allows you to plan your visit around the weather.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10791,7 +10791,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Title: NYC: Top of the Rock Observation Deck Flexible Date Ticket</t>
+          <t>PRODUCTCODE: 455518P8</t>
         </is>
       </c>
       <c r="B687" t="inlineStr"/>
@@ -10806,7 +10806,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
         </is>
       </c>
       <c r="B688" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10836,7 +10836,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 455518P8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B690" t="inlineStr"/>
@@ -10851,7 +10851,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B691" t="inlineStr"/>
@@ -10866,7 +10866,8 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="B692" t="inlineStr"/>
@@ -10881,7 +10882,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>SIMILAR PRODUCTS WITH OPENAI</t>
         </is>
       </c>
       <c r="B693" t="inlineStr"/>
@@ -10896,7 +10897,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>PRODUCTCODE: 8747ONEWORLD</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10911,8 +10912,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>Summarized description: One World Observatory offers 360-degree views of the New York skyline from the highest point in the city. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage.</t>
         </is>
       </c>
       <c r="B695" t="inlineStr"/>
@@ -10927,7 +10927,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SIMILAR PRODUCTS WITH OPENAI</t>
+          <t>Title: NYC One World Observatory Ticket Optional Upgrade Skip-the-Line</t>
         </is>
       </c>
       <c r="B696" t="inlineStr"/>
@@ -10942,7 +10942,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194EMPIRE</t>
+          <t>TotalReviews: 2355</t>
         </is>
       </c>
       <c r="B697" t="inlineStr"/>
@@ -10957,7 +10957,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building (ESB) is the World’s Most Famous Building. The 86th Floor Observation Deck, open daily, offers the highest 360 degree open-air vantage point in New York City. The 102nd floor offers unmatched, floor-to-ceiling views stretching up to 80 miles on a clear day.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B698" t="inlineStr"/>
@@ -10972,7 +10972,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Empire State Building Ticket </t>
+          <t>PRODUCTCODE: 76823P1</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -10987,7 +10987,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>TotalReviews: 5178</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B700" t="inlineStr"/>
@@ -11002,7 +11002,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Edge Observation Deck Admission Ticket</t>
         </is>
       </c>
       <c r="B701" t="inlineStr"/>
@@ -11017,7 +11017,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747ONEWORLD</t>
+          <t>TotalReviews: 1708</t>
         </is>
       </c>
       <c r="B702" t="inlineStr"/>
@@ -11032,7 +11032,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory offers 360-degree views of the New York skyline from the highest point in the city. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B703" t="inlineStr"/>
@@ -11047,7 +11047,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Title: NYC One World Observatory Ticket Optional Upgrade Skip-the-Line</t>
+          <t>PRODUCTCODE: 8747P7</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11062,7 +11062,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>TotalReviews: 2355</t>
+          <t>Summarized description: Take an astonishing ride in the SkyPod Elevators as you climb 102 stories in 47 seconds. Enjoy 2 drinks (choice of beer, wine or prosecco) with your ticket for a truly unforgettable experience.</t>
         </is>
       </c>
       <c r="B705" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: New York City One World Observatory Drink in the View Ticket</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -11092,7 +11092,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P1</t>
+          <t>TotalReviews: 97</t>
         </is>
       </c>
       <c r="B707" t="inlineStr"/>
@@ -11107,7 +11107,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B708" t="inlineStr"/>
@@ -11122,7 +11122,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Title: Edge Observation Deck Admission Ticket</t>
+          <t>PRODUCTCODE: 7167P65</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11137,7 +11137,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>TotalReviews: 1708</t>
+          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
         </is>
       </c>
       <c r="B710" t="inlineStr"/>
@@ -11152,7 +11152,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
         </is>
       </c>
       <c r="B711" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2194AMPM</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B712" t="inlineStr"/>
@@ -11182,7 +11182,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. Day and night ticket allows you to experience the city from the world's most famous building. 360-degree observatory under the morning sun and the sparkling city lights the same night.</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B713" t="inlineStr"/>
@@ -11197,7 +11197,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Title: Empire State Building Day and Night Admission Ticket</t>
+          <t>PRODUCTCODE: 76823P2</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11212,7 +11212,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>TotalReviews: 682</t>
+          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B715" t="inlineStr"/>
@@ -11227,7 +11227,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
         </is>
       </c>
       <c r="B716" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P7</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B717" t="inlineStr"/>
@@ -11257,7 +11257,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Summarized description: Take an astonishing ride in the SkyPod Elevators as you climb 102 stories in 47 seconds. Enjoy 2 drinks (choice of beer, wine or prosecco) with your ticket for a truly unforgettable experience.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B718" t="inlineStr"/>
@@ -11272,7 +11272,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Title: New York City One World Observatory Drink in the View Ticket</t>
+          <t>PRODUCTCODE: 15081P272</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11287,7 +11287,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>TotalReviews: 97</t>
+          <t>Summarized description: With your entry ticket to The Edge at Hudson Yard's, see the protruding 100-stories-high observation deck, with a glass floor, bar &amp; 360-degree NYC views. With your admission ticket to MoMA, see Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray.</t>
         </is>
       </c>
       <c r="B720" t="inlineStr"/>
@@ -11302,7 +11302,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: NYC Tickets: Edge Observation Deck St Patrick's Cathedral &amp; MoMA</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11317,7 +11317,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P10</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B722" t="inlineStr"/>
@@ -11332,7 +11332,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Summarized description: The COMBINATION EXPERIENCE includes PRIORITY access to all Observatory levels for skyline views and all multimedia experiences. Enjoy access to the digital skyline guide, ONE WORLD EXPLORER, and a $5 voucher for use on food and beverage or retail items.</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B723" t="inlineStr"/>
@@ -11347,7 +11347,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line NYC One World Observatory Combo Ticket</t>
+          <t>PRODUCTCODE: 31070P248</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11362,7 +11362,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>TotalReviews: 86</t>
+          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
         </is>
       </c>
       <c r="B725" t="inlineStr"/>
@@ -11377,7 +11377,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11392,7 +11392,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B727" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Summarized description: City Climb is the world's highest building ascent. Experience the ultimate adrenaline rush in NYC. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B728" t="inlineStr"/>
@@ -11422,7 +11422,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: City Climb: The Ultimate Skyscraping Adventure at Edge </t>
+          <t>PRODUCTCODE: 210206P358</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11437,7 +11437,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
         </is>
       </c>
       <c r="B730" t="inlineStr"/>
@@ -11452,7 +11452,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Aerial Tours']</t>
+          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11467,7 +11467,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P65</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B732" t="inlineStr"/>
@@ -11482,7 +11482,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Summarized description: The Walking Tour is led by a local New Yorker, taking in the Rockefeller Center, 30 Rock, NBC Studios, 5th Avenue, the historic Grand Central Terminal, and more. Enjoy a fun guided walking tour of Midtown Manhattan before the thrill of the mind-bending immersive experience of SUMMIT One Vanderbilt.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B733" t="inlineStr"/>
@@ -11497,7 +11497,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Title: Must-See Manhattan Tour with SUMMIT One Vanderbilt Ticket</t>
+          <t>PRODUCTCODE: 122012P14</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11512,7 +11512,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
         </is>
       </c>
       <c r="B735" t="inlineStr"/>
@@ -11527,7 +11527,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11542,7 +11542,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P12</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B737" t="inlineStr"/>
@@ -11557,7 +11557,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Summarized description: New York City from the Top of the Rock Observation Deck at Rockefeller Plaza. Three floors of indoor and outdoor viewing areas where you can see NYC's famous landmarks. Flexible voucher redemption policy with no date restrictions.</t>
+          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B738" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Top of the Rocks Observation Deck Open Ended Ticket with Upgrade </t>
+          <t>PRODUCTCODE: 111861P9</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11587,7 +11587,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
         </is>
       </c>
       <c r="B740" t="inlineStr"/>
@@ -11602,7 +11602,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
         </is>
       </c>
       <c r="B741" t="inlineStr"/>
@@ -11617,7 +11617,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76823P2</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B742" t="inlineStr"/>
@@ -11632,7 +11632,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor observation deck in the western hemisphere. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B743" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Edge Observation Deck: Flexible Entry Ticket </t>
+          <t>PRODUCTCODE: 130543P12</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11662,7 +11662,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>Summarized description: The Rockefeller Center is in the midst of the best shopping and dining options in Midtown Manhattan. Admission to the 360 degrees Observatory on one of the tallest, most                  internationally famous buildings in the US.</t>
         </is>
       </c>
       <c r="B745" t="inlineStr"/>
@@ -11677,7 +11677,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Atop Of The Rock Experience The Rockefeller Plaza And Walkabout Midtown NYC</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11692,7 +11692,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P272</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B747" t="inlineStr"/>
@@ -11707,7 +11707,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Summarized description: With your entry ticket to The Edge at Hudson Yard's, see the protruding 100-stories-high observation deck, with a glass floor, bar &amp; 360-degree NYC views. With your admission ticket to MoMA, see Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray.</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B748" t="inlineStr"/>
@@ -11722,7 +11722,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Title: NYC Tickets: Edge Observation Deck St Patrick's Cathedral &amp; MoMA</t>
+          <t>PRODUCTCODE: 186143P41</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
         </is>
       </c>
       <c r="B750" t="inlineStr"/>
@@ -11752,7 +11752,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11767,7 +11767,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P248</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B752" t="inlineStr"/>
@@ -11782,7 +11782,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Summarized description: Hudson Yards is located beside the Hudson River. A hundred stories up in the Hudson Yards, you can feel the city breeze on an open-air platform that juts out into the sky.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B753" t="inlineStr"/>
@@ -11797,7 +11797,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Title: Edge at Hudson Yards General Admission Tickets</t>
+          <t>PRODUCTCODE: 183204P3</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11812,7 +11812,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>Summarized description: The Empire State Building was completed in 1931. The most iconic spot on this skyscraper is the 86th floor. The view from here is breathtaking, figuratively (and sometimes literally too)!</t>
         </is>
       </c>
       <c r="B755" t="inlineStr"/>
@@ -11827,7 +11827,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Tickets for Empire State Building: Skip The Line</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11842,7 +11842,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P425</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B757" t="inlineStr"/>
@@ -11857,7 +11857,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the construction of the western hemisphere’s tallest building. Ride to the 102nd floor and watch the virtual city skyline transform. Enjoy interpretive art installations that explore NYC history.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B758" t="inlineStr"/>
@@ -11872,7 +11872,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: One World Trade Observation Deck Anytime Tickets with free Boat Ride </t>
+          <t>PRODUCTCODE: 336379P51</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11887,7 +11887,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>Summarized description: One World Trade is in Lower Manhattan and the cruise departs from pier 36 in walking distance from the observation deck. Enjoy 2 of the best Landmarks in NYC. 60 minute cruise with the NYC skyline as a backdrop.</t>
         </is>
       </c>
       <c r="B760" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
+          <t>Title: Observation Deck Ticket WTC and Landmark NYC Cruise and Skyline</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -11917,7 +11917,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P12</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B762" t="inlineStr"/>
@@ -11932,7 +11932,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive Mastercard VIP Tour of One World Observatory. ascend to the 102nd floor in style, effortlessly transported by the futuristic Sky Pod elevators. As you reach the summit, be enveloped by the invincible spirit of the city.</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B763" t="inlineStr"/>
@@ -11947,7 +11947,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Title: Fully Guided Mastercard VIP Tour of One World Observatory</t>
+          <t>PRODUCTCODE: 137061P561</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -11962,7 +11962,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>Summarized description: Visit one of the most famous skyscrapers in New York, an observation deck overlooking popular landmarks. Take in the multi-million dollar 360° view from the height of 70 floors above ground.</t>
         </is>
       </c>
       <c r="B765" t="inlineStr"/>
@@ -11977,7 +11977,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Top of the Rock Admission</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -11992,7 +11992,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8747P9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B767" t="inlineStr"/>
@@ -12007,7 +12007,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Summarized description: Come celebrate the 4th of July at One World Observatory! Experience unparalleled nighttime views of New York City lit up with fireworks for the celebration.Choose from two experiences!</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B768" t="inlineStr"/>
@@ -12022,7 +12022,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Title: Skip the Line NYC One World Observatory 4th of July Celebration Ticket</t>
+          <t>PRODUCTCODE: 251291P44</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12037,7 +12037,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>Summarized description: The Top of the Rock Observation Deck offers 360-degree views of New York City. 9,500 square feet of outdoor viewing space, the most of any other NYC observatory.</t>
         </is>
       </c>
       <c r="B770" t="inlineStr"/>
@@ -12052,7 +12052,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title: New York Top of the Rock Admission Ticket</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P358</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B772" t="inlineStr"/>
@@ -12082,7 +12082,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Summarized description: SUMMIT offers four self-guided tours in New York. The tours are available in the app. They include a ready-to-go itinerary, GPS navigation, descriptions, tips and advices.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B773" t="inlineStr"/>
@@ -12097,7 +12097,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Title: Tickets for SUMMIT One Vanderbilt and Access to Self-Guided Tours in New York</t>
+          <t>PRODUCTCODE: 5250P59</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12112,7 +12112,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
         </is>
       </c>
       <c r="B775" t="inlineStr"/>
@@ -12127,7 +12127,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122012P14</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B777" t="inlineStr"/>
@@ -12157,7 +12157,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Fifth Avenue's famous boutiques and the legendary Diamond District. Step inside the historic Grand Central Terminal before culminating at the SUMMIT for breathtaking views of the city skyline.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B778" t="inlineStr"/>
@@ -12172,7 +12172,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Title: Tour of Manhattan Highlights + Included SUMMIT Tickets</t>
+          <t>PRODUCTCODE: 90219P116</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12187,7 +12187,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Be transported by Skypod to the 102nd floor in 47 seconds, seeing the evolution of the Manhattan skyline on the way. Step out onto the see-through Sky Portal for heart-racing views.</t>
         </is>
       </c>
       <c r="B780" t="inlineStr"/>
@@ -12202,7 +12202,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
+          <t>Title: NYC One World Observatory: Skip-the-Queue Ticket</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12217,7 +12217,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 111861P9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B782" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Positioned on top of the tallest building in the Western Hemisphere, One World Trade Center.</t>
+          <t>Category: ['Modern Attractions', 'Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B783" t="inlineStr"/>
@@ -12247,7 +12247,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: New York One World Observatory Ticket</t>
+          <t>PRODUCTCODE: 121855P6</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12262,7 +12262,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: The Empire State Building is one of the most recognizable buildings in the world. Make your way to the Observatory to catch amazing 360-degree views of New York City.</t>
         </is>
       </c>
       <c r="B785" t="inlineStr"/>
@@ -12277,7 +12277,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: Empire State Building - the 86th Observatory Deck Ticket</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -12292,7 +12292,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130543P12</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B787" t="inlineStr"/>
@@ -12307,7 +12307,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Summarized description: The Rockefeller Center is in the midst of the best shopping and dining options in Midtown Manhattan. Admission to the 360 degrees Observatory on one of the tallest, most                  internationally famous buildings in the US.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B788" t="inlineStr"/>
@@ -12322,7 +12322,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Title: Atop Of The Rock Experience The Rockefeller Plaza And Walkabout Midtown NYC</t>
+          <t>PRODUCTCODE: 198060P8</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12337,7 +12337,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: With the exhibition and two viewing platforms, the Empire State Building is the best way to see New York's most famous skyscraper. Looking up at the skyscrapers of New York is quite an experience, but that's nothing compared to the view from the top.</t>
         </is>
       </c>
       <c r="B790" t="inlineStr"/>
@@ -12352,7 +12352,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t xml:space="preserve">Title: United States New York Empire State Building ticket </t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12367,7 +12367,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P41</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B792" t="inlineStr"/>
@@ -12382,7 +12382,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Summarized description: 360-degree panoramic views allowing you to see a majority of NYCs landmarks including the Statue of Liberty, Freedom Tower, and the Empire State Building.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B793" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Observation Deck at Rockefeller Center Flexible Date Ticket</t>
+          <t>PRODUCTCODE: 128905P307</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12412,7 +12412,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
         </is>
       </c>
       <c r="B795" t="inlineStr"/>
@@ -12427,7 +12427,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: New York Edge Sky Deck Admission Tickets</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183204P3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B797" t="inlineStr"/>
@@ -12457,7 +12457,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Summarized description: The Empire State Building was completed in 1931. The most iconic spot on this skyscraper is the 86th floor. The view from here is breathtaking, figuratively (and sometimes literally too)!</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B798" t="inlineStr"/>
@@ -12472,7 +12472,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Title: Tickets for Empire State Building: Skip The Line</t>
+          <t>PRODUCTCODE: 255730P29</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12487,7 +12487,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Grand Central Terminal is one of New York’s top attractions that welcomes over 20 million visitors every year. Discover hidden passages and secret rooms, enjoy its general opulence and of course stand under the four-faced clock.</t>
         </is>
       </c>
       <c r="B800" t="inlineStr"/>
@@ -12502,7 +12502,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Grand Central Terminal: Private Tour with SUMMIT ONE Vanderbilt</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12517,7 +12517,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137061P561</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B802" t="inlineStr"/>
@@ -12532,7 +12532,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Summarized description: Visit one of the most famous skyscrapers in New York, an observation deck overlooking popular landmarks. Take in the multi-million dollar 360° view from the height of 70 floors above ground.</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B803" t="inlineStr"/>
@@ -12547,7 +12547,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Title: Top of the Rock Admission</t>
+          <t>PRODUCTCODE: 378258P189</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
         </is>
       </c>
       <c r="B805" t="inlineStr"/>
@@ -12577,7 +12577,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12592,7 +12592,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251291P44</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B807" t="inlineStr"/>
@@ -12607,7 +12607,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Summarized description: The Top of the Rock Observation Deck offers 360-degree views of New York City. 9,500 square feet of outdoor viewing space, the most of any other NYC observatory.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B808" t="inlineStr"/>
@@ -12622,7 +12622,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Title: New York Top of the Rock Admission Ticket</t>
+          <t>PRODUCTCODE: 275645P2</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12637,7 +12637,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
         </is>
       </c>
       <c r="B810" t="inlineStr"/>
@@ -12652,7 +12652,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12667,7 +12667,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5250P59</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B812" t="inlineStr"/>
@@ -12682,7 +12682,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Summarized description: Stand atop Edge, the newest skyscraper, an hour before public opening for an exclusive, crowd-free view of the city in morning light. Start at Hudson Yards, where our guide provides insights on its history. Head to Edge for a 360-degree panorama featuring landmarks like the Empire State Building and One World Trade Center.</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B813" t="inlineStr"/>
@@ -12697,7 +12697,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Title: Edge Early Bird Tour: A VIP View Before the Crowds</t>
+          <t>PRODUCTCODE: 177373P17</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12712,7 +12712,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
         </is>
       </c>
       <c r="B815" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P307</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B817" t="inlineStr"/>
@@ -12757,7 +12757,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Summarized description: Edge is the highest outdoor sky deck in the Western Hemisphere. The outdoor deck is made of frameless glass panels boldly angled outward. See all the way from the tip of Central Park down to the Statue of Liberty and beyond.</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B818" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Title: New York Edge Sky Deck Admission Tickets</t>
+          <t>PRODUCTCODE: 90219P179</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12787,7 +12787,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
         </is>
       </c>
       <c r="B820" t="inlineStr"/>
@@ -12802,7 +12802,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 217534P10</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B822" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Summarized description: Take in a 360-degree panorama of New York from 850 feet (260m) in the air at the Top of the Rock. Stroll between 2 floors with expansive indoor and outdoor viewing areas. Top off your visit by taking in breathtaking views of Central Park, Empire State Building, lower Manhattan.</t>
+          <t>Category: ['Modern Attractions', 'Museums', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B823" t="inlineStr"/>
@@ -12847,7 +12847,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Rockefeller Center Observation Deck Admission Ticket</t>
+          <t>PRODUCTCODE: 90219P280</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12862,7 +12862,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Visit the 86th floor Observation Deck of the iconic Empire State Building. Look out on New York City from 1,050 feet above the bustling streets below.</t>
         </is>
       </c>
       <c r="B825" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: New York City Amazing Empire State Building General &amp; Skip-the-Line Tickets</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198060P35</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B827" t="inlineStr"/>
@@ -12907,7 +12907,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Summarized description: One world trade center proudly stands as one of the tallest buildings in the world. Now you can go up into the sky and enjoy spectacular views of New York City and beyond.</t>
+          <t>Category: ['Modern Attractions', 'Museums', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B828" t="inlineStr"/>
@@ -12922,7 +12922,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Title: United States New York One World Observatory Ticket</t>
+          <t>PRODUCTCODE: 116848P17</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12937,7 +12937,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
         </is>
       </c>
       <c r="B830" t="inlineStr"/>
@@ -12952,7 +12952,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -12967,7 +12967,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P215</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B832" t="inlineStr"/>
@@ -12982,7 +12982,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world, reaching 1,776 feet. The observatory offers unprecedented panoramic views of New York City and beyond.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B833" t="inlineStr"/>
@@ -12997,7 +12997,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Title: One World Observatory</t>
+          <t>PRODUCTCODE: 368349P498</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13012,7 +13012,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
         </is>
       </c>
       <c r="B835" t="inlineStr"/>
@@ -13027,7 +13027,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13042,7 +13042,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 122220P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B837" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory™ provides unique, panoramic views of New York City, its most iconic sites, and surrounding waters. Skip-the-Line Admission to One World Observatory is available on a first come, first served basis.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B838" t="inlineStr"/>
@@ -13072,7 +13072,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: One World Observatory Ticket (New York City)</t>
+          <t>PRODUCTCODE: 455518P8</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13087,7 +13087,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
         </is>
       </c>
       <c r="B840" t="inlineStr"/>
@@ -13102,7 +13102,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13117,7 +13117,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P44</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B842" t="inlineStr"/>
@@ -13132,7 +13132,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Summarized description: The One World Trade Center is one of the tallest buildings in the world. Enjoy breathtaking views of NYC from One World Observatory. Explore the fascinating history and iconic landmarks of the Lower Manhattan with the private audio tour available on Wegotrip App.</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B843" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Title: One World Observatory: Skip-The-Line + Sightseeing Audio Tour on Mobile App</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13159,951 +13159,6 @@
       <c r="H844" t="inlineStr"/>
       <c r="I844" t="inlineStr"/>
     </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr"/>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr"/>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr"/>
-      <c r="H845" t="inlineStr"/>
-      <c r="I845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr"/>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr"/>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr"/>
-      <c r="I846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255071P12</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr"/>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr"/>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr"/>
-      <c r="I847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>Summarized description: Head up to the Top on the Sky Shuttle. Explore 2 floors with expansive indoor and outdoor viewing areas. Top off your visit with breathtaking views of Central Park, Empire State Building, downtown Manhattan.</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr"/>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr"/>
-      <c r="I848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Title: New York Exclusive - Skip the Line: One World Observatory Visit Ticket</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr"/>
-      <c r="I849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr"/>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr"/>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr"/>
-      <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr"/>
-      <c r="I850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr"/>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr"/>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr"/>
-      <c r="G851" t="inlineStr"/>
-      <c r="H851" t="inlineStr"/>
-      <c r="I851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 378258P189</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr"/>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr"/>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr"/>
-      <c r="I852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>Summarized description: Book a guided tour of the Rockefeller Center and Top of the Rock with skip-the-line tickets. See the Empire State and Manhattan's iconic skyline.</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr"/>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr"/>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr"/>
-      <c r="H853" t="inlineStr"/>
-      <c r="I853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>Title: Private Tour with Skip the Line Ticket at Top of the Rock</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr"/>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr"/>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr"/>
-      <c r="H854" t="inlineStr"/>
-      <c r="I854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr"/>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr"/>
-      <c r="I855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr"/>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr"/>
-      <c r="H856" t="inlineStr"/>
-      <c r="I856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 275645P2</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr"/>
-      <c r="I857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>Summarized description: There are 3 lines at the Empire State Building Observatory: the security line (required for all visitors), the ticket line and the elevator line. You may proceed directly to the turnstile with your voucher.</t>
-        </is>
-      </c>
-      <c r="B858" t="inlineStr"/>
-      <c r="C858" t="inlineStr"/>
-      <c r="D858" t="inlineStr"/>
-      <c r="E858" t="inlineStr"/>
-      <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr"/>
-      <c r="I858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>Title: Skip-The-Line Ticket to Empire State Building 86th Floor</t>
-        </is>
-      </c>
-      <c r="B859" t="inlineStr"/>
-      <c r="C859" t="inlineStr"/>
-      <c r="D859" t="inlineStr"/>
-      <c r="E859" t="inlineStr"/>
-      <c r="F859" t="inlineStr"/>
-      <c r="G859" t="inlineStr"/>
-      <c r="H859" t="inlineStr"/>
-      <c r="I859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B860" t="inlineStr"/>
-      <c r="C860" t="inlineStr"/>
-      <c r="D860" t="inlineStr"/>
-      <c r="E860" t="inlineStr"/>
-      <c r="F860" t="inlineStr"/>
-      <c r="G860" t="inlineStr"/>
-      <c r="H860" t="inlineStr"/>
-      <c r="I860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B861" t="inlineStr"/>
-      <c r="C861" t="inlineStr"/>
-      <c r="D861" t="inlineStr"/>
-      <c r="E861" t="inlineStr"/>
-      <c r="F861" t="inlineStr"/>
-      <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr"/>
-      <c r="I861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 177373P17</t>
-        </is>
-      </c>
-      <c r="B862" t="inlineStr"/>
-      <c r="C862" t="inlineStr"/>
-      <c r="D862" t="inlineStr"/>
-      <c r="E862" t="inlineStr"/>
-      <c r="F862" t="inlineStr"/>
-      <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr"/>
-      <c r="I862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="A863" t="inlineStr">
-        <is>
-          <t>Summarized description: Empire State Building’s open-air 86th Floor Observation Deck. The Highest Open-Air Observatory in New York. 360-degree views of Central Park, The Hudson River and East River, The Brooklyn Bridge, Times Square.</t>
-        </is>
-      </c>
-      <c r="B863" t="inlineStr"/>
-      <c r="C863" t="inlineStr"/>
-      <c r="D863" t="inlineStr"/>
-      <c r="E863" t="inlineStr"/>
-      <c r="F863" t="inlineStr"/>
-      <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr"/>
-      <c r="I863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="A864" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Empire State Building Entrance Ticket</t>
-        </is>
-      </c>
-      <c r="B864" t="inlineStr"/>
-      <c r="C864" t="inlineStr"/>
-      <c r="D864" t="inlineStr"/>
-      <c r="E864" t="inlineStr"/>
-      <c r="F864" t="inlineStr"/>
-      <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr"/>
-      <c r="I864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B865" t="inlineStr"/>
-      <c r="C865" t="inlineStr"/>
-      <c r="D865" t="inlineStr"/>
-      <c r="E865" t="inlineStr"/>
-      <c r="F865" t="inlineStr"/>
-      <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr"/>
-      <c r="I865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="A866" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B866" t="inlineStr"/>
-      <c r="C866" t="inlineStr"/>
-      <c r="D866" t="inlineStr"/>
-      <c r="E866" t="inlineStr"/>
-      <c r="F866" t="inlineStr"/>
-      <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr"/>
-      <c r="I866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="A867" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 116848P46</t>
-        </is>
-      </c>
-      <c r="B867" t="inlineStr"/>
-      <c r="C867" t="inlineStr"/>
-      <c r="D867" t="inlineStr"/>
-      <c r="E867" t="inlineStr"/>
-      <c r="F867" t="inlineStr"/>
-      <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr"/>
-      <c r="I867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
-          <t>Summarized description: The Sky Pod is the fastest elevators in the Western Hemisphere. While ascending, the Sky Pod provides a virtual time-lapse visual experience showing how the view of New York City has changed.</t>
-        </is>
-      </c>
-      <c r="B868" t="inlineStr"/>
-      <c r="C868" t="inlineStr"/>
-      <c r="D868" t="inlineStr"/>
-      <c r="E868" t="inlineStr"/>
-      <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr"/>
-      <c r="I868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: One World Observatory Ticket</t>
-        </is>
-      </c>
-      <c r="B869" t="inlineStr"/>
-      <c r="C869" t="inlineStr"/>
-      <c r="D869" t="inlineStr"/>
-      <c r="E869" t="inlineStr"/>
-      <c r="F869" t="inlineStr"/>
-      <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr"/>
-      <c r="I869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B870" t="inlineStr"/>
-      <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr"/>
-      <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr"/>
-      <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr"/>
-      <c r="I870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr"/>
-      <c r="C871" t="inlineStr"/>
-      <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
-      <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr"/>
-      <c r="I871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P179</t>
-        </is>
-      </c>
-      <c r="B872" t="inlineStr"/>
-      <c r="C872" t="inlineStr"/>
-      <c r="D872" t="inlineStr"/>
-      <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr"/>
-      <c r="I872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy sweeping views of Manhattan from atop the Rockefeller Center. Use your flexible Top of the Rock ticket whenever you like, within a month of your scheduled ticket date.Explore the free art exhibition about Frieze Sculptures.</t>
-        </is>
-      </c>
-      <c r="B873" t="inlineStr"/>
-      <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr"/>
-      <c r="I873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>Title: Sprightly Top of the Rock Observation Deck Flexible Date Ticket</t>
-        </is>
-      </c>
-      <c r="B874" t="inlineStr"/>
-      <c r="C874" t="inlineStr"/>
-      <c r="D874" t="inlineStr"/>
-      <c r="E874" t="inlineStr"/>
-      <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr"/>
-      <c r="I874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B875" t="inlineStr"/>
-      <c r="C875" t="inlineStr"/>
-      <c r="D875" t="inlineStr"/>
-      <c r="E875" t="inlineStr"/>
-      <c r="F875" t="inlineStr"/>
-      <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr"/>
-      <c r="I875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B876" t="inlineStr"/>
-      <c r="C876" t="inlineStr"/>
-      <c r="D876" t="inlineStr"/>
-      <c r="E876" t="inlineStr"/>
-      <c r="F876" t="inlineStr"/>
-      <c r="G876" t="inlineStr"/>
-      <c r="H876" t="inlineStr"/>
-      <c r="I876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P280</t>
-        </is>
-      </c>
-      <c r="B877" t="inlineStr"/>
-      <c r="C877" t="inlineStr"/>
-      <c r="D877" t="inlineStr"/>
-      <c r="E877" t="inlineStr"/>
-      <c r="F877" t="inlineStr"/>
-      <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr"/>
-      <c r="I877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the 86th floor Observation Deck of the iconic Empire State Building. Look out on New York City from 1,050 feet above the bustling streets below.</t>
-        </is>
-      </c>
-      <c r="B878" t="inlineStr"/>
-      <c r="C878" t="inlineStr"/>
-      <c r="D878" t="inlineStr"/>
-      <c r="E878" t="inlineStr"/>
-      <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr"/>
-      <c r="I878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>Title: New York City Amazing Empire State Building General &amp; Skip-the-Line Tickets</t>
-        </is>
-      </c>
-      <c r="B879" t="inlineStr"/>
-      <c r="C879" t="inlineStr"/>
-      <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr"/>
-      <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr"/>
-      <c r="I879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B880" t="inlineStr"/>
-      <c r="C880" t="inlineStr"/>
-      <c r="D880" t="inlineStr"/>
-      <c r="E880" t="inlineStr"/>
-      <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr"/>
-      <c r="I880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Modern Attractions', 'Aerial Tours']</t>
-        </is>
-      </c>
-      <c r="B881" t="inlineStr"/>
-      <c r="C881" t="inlineStr"/>
-      <c r="D881" t="inlineStr"/>
-      <c r="E881" t="inlineStr"/>
-      <c r="F881" t="inlineStr"/>
-      <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr"/>
-      <c r="I881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 116848P17</t>
-        </is>
-      </c>
-      <c r="B882" t="inlineStr"/>
-      <c r="C882" t="inlineStr"/>
-      <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr"/>
-      <c r="F882" t="inlineStr"/>
-      <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr"/>
-      <c r="I882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>Summarized description: Take in a 360-degree panorama of the Big Apple from 850 feet (260 m) in the air at the Top of the Rock. Exchange your open ticket for a timed ticket of your choice upon arrival. Explore 2 floors with expansive indoor and outdoor viewing areas.</t>
-        </is>
-      </c>
-      <c r="B883" t="inlineStr"/>
-      <c r="C883" t="inlineStr"/>
-      <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
-      <c r="F883" t="inlineStr"/>
-      <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr"/>
-      <c r="I883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Top of the Rock Observation Deck - Flexible Date Ticket</t>
-        </is>
-      </c>
-      <c r="B884" t="inlineStr"/>
-      <c r="C884" t="inlineStr"/>
-      <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr"/>
-      <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr"/>
-      <c r="I884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr"/>
-      <c r="C885" t="inlineStr"/>
-      <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr"/>
-      <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr"/>
-      <c r="I885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B886" t="inlineStr"/>
-      <c r="C886" t="inlineStr"/>
-      <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr"/>
-      <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr"/>
-      <c r="I886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 128905P252</t>
-        </is>
-      </c>
-      <c r="B887" t="inlineStr"/>
-      <c r="C887" t="inlineStr"/>
-      <c r="D887" t="inlineStr"/>
-      <c r="E887" t="inlineStr"/>
-      <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr"/>
-      <c r="I887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>Summarized description: The Freedom Tower is a spectacular glass and steel monolith, reaching 1,776 feet into the sky. Ride the multimedia elevator and experience the Sky Walk to feel like you're floating above New York City. See everything from Battery Park, the New York Stock Exchange and Wall Street to 28 Liberty Place.</t>
-        </is>
-      </c>
-      <c r="B888" t="inlineStr"/>
-      <c r="C888" t="inlineStr"/>
-      <c r="D888" t="inlineStr"/>
-      <c r="E888" t="inlineStr"/>
-      <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr"/>
-      <c r="I888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>Title: NYC One World Observatory Skip-the-Line Ticket + Self-Guided Walking Tour</t>
-        </is>
-      </c>
-      <c r="B889" t="inlineStr"/>
-      <c r="C889" t="inlineStr"/>
-      <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr"/>
-      <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr"/>
-      <c r="I889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B890" t="inlineStr"/>
-      <c r="C890" t="inlineStr"/>
-      <c r="D890" t="inlineStr"/>
-      <c r="E890" t="inlineStr"/>
-      <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr"/>
-      <c r="I890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>Category: ['Aerial Tours']</t>
-        </is>
-      </c>
-      <c r="B891" t="inlineStr"/>
-      <c r="C891" t="inlineStr"/>
-      <c r="D891" t="inlineStr"/>
-      <c r="E891" t="inlineStr"/>
-      <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr"/>
-      <c r="I891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 368349P530</t>
-        </is>
-      </c>
-      <c r="B892" t="inlineStr"/>
-      <c r="C892" t="inlineStr"/>
-      <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr"/>
-      <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr"/>
-      <c r="I892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>Summarized description: The One World Observatory is the world's largest open-air observatory. The observatory is located in New York City's Times Square. It is the largest observatory in the world, with more than 100,000 square feet.</t>
-        </is>
-      </c>
-      <c r="B893" t="inlineStr"/>
-      <c r="C893" t="inlineStr"/>
-      <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr"/>
-      <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr"/>
-      <c r="I893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>Title: Skip the line One World Observatory Tour with Transfers</t>
-        </is>
-      </c>
-      <c r="B894" t="inlineStr"/>
-      <c r="C894" t="inlineStr"/>
-      <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr"/>
-      <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr"/>
-      <c r="I894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B895" t="inlineStr"/>
-      <c r="C895" t="inlineStr"/>
-      <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr"/>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr"/>
-      <c r="I895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B896" t="inlineStr"/>
-      <c r="C896" t="inlineStr"/>
-      <c r="D896" t="inlineStr"/>
-      <c r="E896" t="inlineStr"/>
-      <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr"/>
-      <c r="I896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 368349P498</t>
-        </is>
-      </c>
-      <c r="B897" t="inlineStr"/>
-      <c r="C897" t="inlineStr"/>
-      <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr"/>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr"/>
-      <c r="I897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover top attractions in NYC’s Central Manhattan with a 5-Star Local Guide. Enjoy the views and attractions of Summit One Vanderbuilt with Fast-Track Tickets. Visit the most popular public spaces: Grand Central and the NY Public Library. See Times Square, Rockefeller Center, St. Patrick's Cathedral and more.</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr"/>
-      <c r="C898" t="inlineStr"/>
-      <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr"/>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr"/>
-      <c r="I898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>Title: NYC Tour: One Vanderbilt Tickets, Times Square, Rockefeller</t>
-        </is>
-      </c>
-      <c r="B899" t="inlineStr"/>
-      <c r="C899" t="inlineStr"/>
-      <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
-      <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr"/>
-      <c r="I899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B900" t="inlineStr"/>
-      <c r="C900" t="inlineStr"/>
-      <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr"/>
-      <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr"/>
-      <c r="I900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B901" t="inlineStr"/>
-      <c r="C901" t="inlineStr"/>
-      <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr"/>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr"/>
-      <c r="I901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 455518P8</t>
-        </is>
-      </c>
-      <c r="B902" t="inlineStr"/>
-      <c r="C902" t="inlineStr"/>
-      <c r="D902" t="inlineStr"/>
-      <c r="E902" t="inlineStr"/>
-      <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr"/>
-      <c r="I902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>Summarized description: SUMMIT One Vanderbilt is an immersive, four-story 65,000-square-foot space at the top of the magnificent 1,401-foot-tall Vanderbilt skyscraper. View the spectacular panoramas from the building's 67th floor.</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr"/>
-      <c r="C903" t="inlineStr"/>
-      <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr"/>
-      <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr"/>
-      <c r="I903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>Title: VIP SUMMIT One Vanderbilt Midtown Grand Central Highlights Tour</t>
-        </is>
-      </c>
-      <c r="B904" t="inlineStr"/>
-      <c r="C904" t="inlineStr"/>
-      <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
-      <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr"/>
-      <c r="I904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr"/>
-      <c r="C905" t="inlineStr"/>
-      <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
-      <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr"/>
-      <c r="I905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr"/>
-      <c r="C906" t="inlineStr"/>
-      <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
-      <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr"/>
-      <c r="I906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr"/>
-      <c r="C907" t="inlineStr"/>
-      <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
-      <c r="I907" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
